--- a/lib/assets/cases.xlsx
+++ b/lib/assets/cases.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elnaz/Documents/dev/policeboard/lib/assets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="0" windowWidth="25700" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1393">
   <si>
     <t>Case Number</t>
   </si>
@@ -3545,21 +3540,6 @@
     <t>13PB2846</t>
   </si>
   <si>
-    <t>13PB2847</t>
-  </si>
-  <si>
-    <t>13PB2848</t>
-  </si>
-  <si>
-    <t>13PB2849</t>
-  </si>
-  <si>
-    <t>13PB2850</t>
-  </si>
-  <si>
-    <t>13PB2851</t>
-  </si>
-  <si>
     <t>Richards</t>
   </si>
   <si>
@@ -3732,13 +3712,499 @@
   </si>
   <si>
     <t>McAuliffe</t>
+  </si>
+  <si>
+    <t>18680</t>
+  </si>
+  <si>
+    <t>14PB2849</t>
+  </si>
+  <si>
+    <t>Milz</t>
+  </si>
+  <si>
+    <t>21200</t>
+  </si>
+  <si>
+    <t>Suspended 180 Days</t>
+  </si>
+  <si>
+    <t>14PB2847</t>
+  </si>
+  <si>
+    <t>Johyn</t>
+  </si>
+  <si>
+    <t>Killackey</t>
+  </si>
+  <si>
+    <t>20163</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Adis</t>
+  </si>
+  <si>
+    <t>Klincevic</t>
+  </si>
+  <si>
+    <t>18392</t>
+  </si>
+  <si>
+    <t>14PB2851</t>
+  </si>
+  <si>
+    <t>14PB2852</t>
+  </si>
+  <si>
+    <t>Taric</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>19633</t>
+  </si>
+  <si>
+    <t>14PB2853</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>13485</t>
+  </si>
+  <si>
+    <t>14PB2854</t>
+  </si>
+  <si>
+    <t>Ripley</t>
+  </si>
+  <si>
+    <t>16198</t>
+  </si>
+  <si>
+    <t>14PB2855</t>
+  </si>
+  <si>
+    <t>McDermott</t>
+  </si>
+  <si>
+    <t>21084</t>
+  </si>
+  <si>
+    <t>14PB2856</t>
+  </si>
+  <si>
+    <t>14PB2857</t>
+  </si>
+  <si>
+    <t>14PB2858</t>
+  </si>
+  <si>
+    <t>14PB2859</t>
+  </si>
+  <si>
+    <t>14PB2860</t>
+  </si>
+  <si>
+    <t>14PB2861</t>
+  </si>
+  <si>
+    <t>14PB2862</t>
+  </si>
+  <si>
+    <t>14PB2863</t>
+  </si>
+  <si>
+    <t>14PB2864</t>
+  </si>
+  <si>
+    <t>14PB2865</t>
+  </si>
+  <si>
+    <t>14PB2866</t>
+  </si>
+  <si>
+    <t>14PB2867</t>
+  </si>
+  <si>
+    <t>14PB2868</t>
+  </si>
+  <si>
+    <t>11348</t>
+  </si>
+  <si>
+    <t>18396</t>
+  </si>
+  <si>
+    <t>Broderick</t>
+  </si>
+  <si>
+    <t>Snelling</t>
+  </si>
+  <si>
+    <t>19468</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>4129</t>
+  </si>
+  <si>
+    <t>Wyman</t>
+  </si>
+  <si>
+    <t>17764</t>
+  </si>
+  <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
+    <t>19717</t>
+  </si>
+  <si>
+    <t>Tonacia</t>
+  </si>
+  <si>
+    <t>Granado</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>12474</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Vivas</t>
+  </si>
+  <si>
+    <t>21021</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>12446</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>7917</t>
+  </si>
+  <si>
+    <t>Dahill</t>
+  </si>
+  <si>
+    <t>19227</t>
+  </si>
+  <si>
+    <t>14PB2869</t>
+  </si>
+  <si>
+    <t>14PB2870</t>
+  </si>
+  <si>
+    <t>14PB2871</t>
+  </si>
+  <si>
+    <t>14PB2872</t>
+  </si>
+  <si>
+    <t>14PB2873</t>
+  </si>
+  <si>
+    <t>14PB2874</t>
+  </si>
+  <si>
+    <t>14PB2875</t>
+  </si>
+  <si>
+    <t>14PB2876</t>
+  </si>
+  <si>
+    <t>14PB2877</t>
+  </si>
+  <si>
+    <t>14PB2878</t>
+  </si>
+  <si>
+    <t>14PB2879</t>
+  </si>
+  <si>
+    <t>14PB2880</t>
+  </si>
+  <si>
+    <t>Mysliwiec</t>
+  </si>
+  <si>
+    <t>16447</t>
+  </si>
+  <si>
+    <t>Theron</t>
+  </si>
+  <si>
+    <t>13248</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Fregoso-Hein</t>
+  </si>
+  <si>
+    <t>19498</t>
+  </si>
+  <si>
+    <t>Duignan</t>
+  </si>
+  <si>
+    <t>21471</t>
+  </si>
+  <si>
+    <t>Quantilda</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>16500</t>
+  </si>
+  <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>18709</t>
+  </si>
+  <si>
+    <t>Rizzo</t>
+  </si>
+  <si>
+    <t>17012</t>
+  </si>
+  <si>
+    <t>Adreani</t>
+  </si>
+  <si>
+    <t>6621</t>
+  </si>
+  <si>
+    <t>Bondi</t>
+  </si>
+  <si>
+    <t>24908</t>
+  </si>
+  <si>
+    <t>15PB2882</t>
+  </si>
+  <si>
+    <t>15PB2881</t>
+  </si>
+  <si>
+    <t>15PB2883</t>
+  </si>
+  <si>
+    <t>15PB2884</t>
+  </si>
+  <si>
+    <t>15PB2885</t>
+  </si>
+  <si>
+    <t>15PB2886</t>
+  </si>
+  <si>
+    <t>Sherece</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>17385</t>
+  </si>
+  <si>
+    <t>Velez</t>
+  </si>
+  <si>
+    <t>19367</t>
+  </si>
+  <si>
+    <t>10884</t>
+  </si>
+  <si>
+    <t>Rigoberto</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>9094</t>
+  </si>
+  <si>
+    <t>15PB2887</t>
+  </si>
+  <si>
+    <t>15PB2888</t>
+  </si>
+  <si>
+    <t>15PB2889</t>
+  </si>
+  <si>
+    <t>15PB2890</t>
+  </si>
+  <si>
+    <t>15PB2891</t>
+  </si>
+  <si>
+    <t>15PB2892</t>
+  </si>
+  <si>
+    <t>15PB2893</t>
+  </si>
+  <si>
+    <t>Enriquez</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>Victria</t>
+  </si>
+  <si>
+    <t>Guiterrez</t>
+  </si>
+  <si>
+    <t>15542</t>
+  </si>
+  <si>
+    <t>18940</t>
+  </si>
+  <si>
+    <t>Meshey</t>
+  </si>
+  <si>
+    <t>7737</t>
+  </si>
+  <si>
+    <t>Foggey</t>
+  </si>
+  <si>
+    <t>9768</t>
+  </si>
+  <si>
+    <t>Halper</t>
+  </si>
+  <si>
+    <t>21345</t>
+  </si>
+  <si>
+    <t>Katrina</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>19085</t>
+  </si>
+  <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>Centeria</t>
+  </si>
+  <si>
+    <t>2583</t>
+  </si>
+  <si>
+    <t>Moore-Powell</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Wendt</t>
+  </si>
+  <si>
+    <t>13635</t>
+  </si>
+  <si>
+    <t>Lasner</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>Michaeline</t>
+  </si>
+  <si>
+    <t>Maciejewski</t>
+  </si>
+  <si>
+    <t>19438</t>
+  </si>
+  <si>
+    <t>Killacky</t>
+  </si>
+  <si>
+    <t>Haleas</t>
+  </si>
+  <si>
+    <t>6719</t>
+  </si>
+  <si>
+    <t>14PB2850</t>
+  </si>
+  <si>
+    <t>14PB2848</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>8880</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>15170</t>
+  </si>
+  <si>
+    <t>Drell</t>
+  </si>
+  <si>
+    <t>3374</t>
+  </si>
+  <si>
+    <t>Rhea</t>
+  </si>
+  <si>
+    <t>7358</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3749,6 +4215,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3771,18 +4253,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3838,7 +4434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,7 +4469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4050,7 +4646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4058,26 +4654,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R462"/>
+  <dimension ref="A1:R506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="24.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="4"/>
+    <col min="14" max="14" width="38.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4169,7 +4770,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4205,7 +4806,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4247,7 +4848,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4285,7 +4886,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -4327,7 +4928,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4371,7 +4972,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -4409,7 +5010,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -4445,7 +5046,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4489,7 +5090,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -4533,7 +5134,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -4571,7 +5172,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -4609,7 +5210,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4653,7 +5254,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -4699,7 +5300,7 @@
         <v>36860</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,7 +5340,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -4777,7 +5378,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,7 +5416,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -4853,7 +5454,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -4891,7 +5492,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4929,7 +5530,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -4973,7 +5574,7 @@
         <v>37075</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -5021,7 +5622,7 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -5061,7 +5662,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -5105,7 +5706,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -5147,7 +5748,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -5191,7 +5792,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -5229,7 +5830,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
@@ -5267,7 +5868,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -5315,7 +5916,7 @@
         <v>37103</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
@@ -5359,7 +5960,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -5397,7 +5998,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -5445,7 +6046,7 @@
         <v>37039</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -5483,7 +6084,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -5523,7 +6124,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -5561,7 +6162,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -5599,7 +6200,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -5637,7 +6238,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
@@ -5681,7 +6282,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -5725,7 +6326,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -5763,7 +6364,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -5811,7 +6412,7 @@
         <v>37135</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
@@ -5859,7 +6460,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
@@ -5897,7 +6498,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
@@ -5935,7 +6536,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -5973,7 +6574,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
@@ -6011,7 +6612,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>172</v>
       </c>
@@ -6055,7 +6656,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -6093,7 +6694,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
@@ -6127,7 +6728,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
@@ -6165,7 +6766,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>184</v>
       </c>
@@ -6213,7 +6814,7 @@
         <v>37491</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
@@ -6257,7 +6858,7 @@
         <v>37295</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>190</v>
       </c>
@@ -6295,7 +6896,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>193</v>
       </c>
@@ -6333,7 +6934,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -6375,7 +6976,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -6413,7 +7014,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>203</v>
       </c>
@@ -6451,7 +7052,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -6493,7 +7094,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>208</v>
       </c>
@@ -6527,7 +7128,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -6561,7 +7162,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>215</v>
       </c>
@@ -6603,7 +7204,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -6647,7 +7248,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -6693,7 +7294,7 @@
         <v>37028</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
@@ -6731,7 +7332,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
@@ -6779,7 +7380,7 @@
         <v>36930</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -6825,7 +7426,7 @@
         <v>37054</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -6867,7 +7468,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
         <v>237</v>
       </c>
@@ -6915,7 +7516,7 @@
         <v>37439</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
         <v>242</v>
       </c>
@@ -6957,7 +7558,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>245</v>
       </c>
@@ -7005,7 +7606,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
         <v>248</v>
       </c>
@@ -7049,7 +7650,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
         <v>251</v>
       </c>
@@ -7087,7 +7688,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
         <v>254</v>
       </c>
@@ -7125,7 +7726,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
         <v>256</v>
       </c>
@@ -7169,7 +7770,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
         <v>259</v>
       </c>
@@ -7207,7 +7808,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -7255,7 +7856,7 @@
         <v>37854</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
         <v>265</v>
       </c>
@@ -7293,7 +7894,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
         <v>268</v>
       </c>
@@ -7331,7 +7932,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
         <v>271</v>
       </c>
@@ -7369,7 +7970,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
         <v>275</v>
       </c>
@@ -7413,7 +8014,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
         <v>277</v>
       </c>
@@ -7459,7 +8060,7 @@
         <v>37686</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
         <v>280</v>
       </c>
@@ -7497,7 +8098,7 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
         <v>283</v>
       </c>
@@ -7535,7 +8136,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>286</v>
       </c>
@@ -7583,7 +8184,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -7621,7 +8222,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
         <v>292</v>
       </c>
@@ -7659,7 +8260,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
         <v>295</v>
       </c>
@@ -7707,7 +8308,7 @@
         <v>37923</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
         <v>297</v>
       </c>
@@ -7745,7 +8346,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
         <v>300</v>
       </c>
@@ -7793,7 +8394,7 @@
         <v>37959</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
@@ -7837,7 +8438,7 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
         <v>306</v>
       </c>
@@ -7883,7 +8484,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
         <v>308</v>
       </c>
@@ -7921,7 +8522,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -7959,7 +8560,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="1" t="s">
         <v>315</v>
       </c>
@@ -8005,7 +8606,7 @@
         <v>38444</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="s">
         <v>319</v>
       </c>
@@ -8043,7 +8644,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="s">
         <v>322</v>
       </c>
@@ -8091,7 +8692,7 @@
         <v>38259</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="1" t="s">
         <v>326</v>
       </c>
@@ -8135,7 +8736,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
         <v>329</v>
       </c>
@@ -8173,7 +8774,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="1" t="s">
         <v>332</v>
       </c>
@@ -8219,7 +8820,7 @@
         <v>38017</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="1" t="s">
         <v>335</v>
       </c>
@@ -8265,7 +8866,7 @@
         <v>38017</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="1" t="s">
         <v>338</v>
       </c>
@@ -8307,7 +8908,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="1" t="s">
         <v>341</v>
       </c>
@@ -8349,7 +8950,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
@@ -8393,7 +8994,7 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
@@ -8437,7 +9038,7 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="1" t="s">
         <v>350</v>
       </c>
@@ -8475,7 +9076,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="1" t="s">
         <v>352</v>
       </c>
@@ -8519,7 +9120,7 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" s="1" t="s">
         <v>355</v>
       </c>
@@ -8557,7 +9158,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="1" t="s">
         <v>358</v>
       </c>
@@ -8601,7 +9202,7 @@
         <v>38179</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" s="1" t="s">
         <v>361</v>
       </c>
@@ -8645,7 +9246,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="1" t="s">
         <v>363</v>
       </c>
@@ -8683,7 +9284,7 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="1" t="s">
         <v>365</v>
       </c>
@@ -8719,7 +9320,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>368</v>
       </c>
@@ -8767,7 +9368,7 @@
         <v>38077</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="1" t="s">
         <v>372</v>
       </c>
@@ -8815,7 +9416,7 @@
         <v>38275</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
         <v>374</v>
       </c>
@@ -8855,7 +9456,7 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
         <v>377</v>
       </c>
@@ -8893,7 +9494,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
         <v>380</v>
       </c>
@@ -8939,7 +9540,7 @@
         <v>38288</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="1" t="s">
         <v>382</v>
       </c>
@@ -8977,7 +9578,7 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
@@ -9013,7 +9614,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="1" t="s">
         <v>387</v>
       </c>
@@ -9061,7 +9662,7 @@
         <v>38129</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="1" t="s">
         <v>390</v>
       </c>
@@ -9099,7 +9700,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="1" t="s">
         <v>393</v>
       </c>
@@ -9137,31 +9738,51 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1">
+        <v>286712</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
+      <c r="I123" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="3">
+        <v>38048</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="3">
+        <v>38323</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="1" t="s">
         <v>397</v>
       </c>
@@ -9205,7 +9826,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="1" t="s">
         <v>400</v>
       </c>
@@ -9251,7 +9872,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
         <v>404</v>
       </c>
@@ -9289,7 +9910,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
         <v>407</v>
       </c>
@@ -9333,7 +9954,7 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
@@ -9373,7 +9994,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" s="1" t="s">
         <v>411</v>
       </c>
@@ -9417,7 +10038,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" s="1" t="s">
         <v>414</v>
       </c>
@@ -9455,7 +10076,7 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" s="1" t="s">
         <v>417</v>
       </c>
@@ -9501,7 +10122,7 @@
         <v>38259</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" s="1" t="s">
         <v>420</v>
       </c>
@@ -9545,7 +10166,7 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" s="1" t="s">
         <v>423</v>
       </c>
@@ -9591,7 +10212,7 @@
       </c>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" s="1" t="s">
         <v>427</v>
       </c>
@@ -9631,7 +10252,7 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" s="1" t="s">
         <v>430</v>
       </c>
@@ -9679,7 +10300,7 @@
         <v>38162</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" s="1" t="s">
         <v>433</v>
       </c>
@@ -9723,7 +10344,7 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" s="1" t="s">
         <v>436</v>
       </c>
@@ -9761,7 +10382,7 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" s="1" t="s">
         <v>439</v>
       </c>
@@ -9803,7 +10424,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" s="1" t="s">
         <v>442</v>
       </c>
@@ -9851,7 +10472,7 @@
         <v>39982</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" s="1" t="s">
         <v>445</v>
       </c>
@@ -9891,7 +10512,7 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" s="1" t="s">
         <v>448</v>
       </c>
@@ -9935,7 +10556,7 @@
       </c>
       <c r="R141" s="1"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" s="1" t="s">
         <v>451</v>
       </c>
@@ -9983,7 +10604,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" s="1" t="s">
         <v>454</v>
       </c>
@@ -10021,7 +10642,7 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" s="1" t="s">
         <v>456</v>
       </c>
@@ -10057,7 +10678,7 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" s="1" t="s">
         <v>459</v>
       </c>
@@ -10101,7 +10722,7 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" s="1" t="s">
         <v>462</v>
       </c>
@@ -10143,7 +10764,7 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" s="1" t="s">
         <v>465</v>
       </c>
@@ -10187,7 +10808,7 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
         <v>467</v>
       </c>
@@ -10235,7 +10856,7 @@
         <v>39020</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" s="1" t="s">
         <v>470</v>
       </c>
@@ -10281,7 +10902,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" s="1" t="s">
         <v>471</v>
       </c>
@@ -10325,7 +10946,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" s="1" t="s">
         <v>473</v>
       </c>
@@ -10369,7 +10990,7 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" s="1" t="s">
         <v>475</v>
       </c>
@@ -10411,7 +11032,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" s="1" t="s">
         <v>477</v>
       </c>
@@ -10455,7 +11076,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" s="1" t="s">
         <v>480</v>
       </c>
@@ -10493,7 +11114,7 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" s="1" t="s">
         <v>483</v>
       </c>
@@ -10537,7 +11158,7 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -10583,7 +11204,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" s="1" t="s">
         <v>488</v>
       </c>
@@ -10627,7 +11248,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" s="1" t="s">
         <v>491</v>
       </c>
@@ -10665,7 +11286,7 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" s="1" t="s">
         <v>494</v>
       </c>
@@ -10703,7 +11324,7 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" s="1" t="s">
         <v>496</v>
       </c>
@@ -10751,7 +11372,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" s="1" t="s">
         <v>499</v>
       </c>
@@ -10795,7 +11416,7 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" s="1" t="s">
         <v>500</v>
       </c>
@@ -10847,7 +11468,7 @@
         <v>38919</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" s="1" t="s">
         <v>503</v>
       </c>
@@ -10885,7 +11506,7 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" s="1" t="s">
         <v>506</v>
       </c>
@@ -10929,7 +11550,7 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -10977,7 +11598,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" s="1" t="s">
         <v>511</v>
       </c>
@@ -11021,7 +11642,7 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" s="1" t="s">
         <v>514</v>
       </c>
@@ -11065,7 +11686,7 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" s="1" t="s">
         <v>517</v>
       </c>
@@ -11111,7 +11732,7 @@
         <v>38759</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" s="1" t="s">
         <v>521</v>
       </c>
@@ -11159,7 +11780,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" s="1" t="s">
         <v>524</v>
       </c>
@@ -11205,7 +11826,7 @@
         <v>39102</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" s="1" t="s">
         <v>526</v>
       </c>
@@ -11243,7 +11864,7 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" s="1" t="s">
         <v>529</v>
       </c>
@@ -11287,7 +11908,7 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" s="1" t="s">
         <v>532</v>
       </c>
@@ -11329,7 +11950,7 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -11377,7 +11998,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -11415,7 +12036,7 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -11451,7 +12072,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -11489,7 +12110,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -11537,7 +12158,7 @@
         <v>38801</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" s="1" t="s">
         <v>550</v>
       </c>
@@ -11585,7 +12206,7 @@
         <v>38806</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -11633,7 +12254,7 @@
         <v>39005</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -11681,7 +12302,7 @@
         <v>39502</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -11729,7 +12350,7 @@
         <v>39510</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" s="1" t="s">
         <v>560</v>
       </c>
@@ -11775,7 +12396,7 @@
         <v>39149</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" s="1" t="s">
         <v>562</v>
       </c>
@@ -11819,7 +12440,7 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" s="1" t="s">
         <v>565</v>
       </c>
@@ -11867,7 +12488,7 @@
         <v>39156</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" s="1" t="s">
         <v>567</v>
       </c>
@@ -11913,7 +12534,7 @@
         <v>38890</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" s="1" t="s">
         <v>569</v>
       </c>
@@ -11957,7 +12578,7 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" s="1" t="s">
         <v>572</v>
       </c>
@@ -11995,7 +12616,7 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" s="1" t="s">
         <v>574</v>
       </c>
@@ -12043,7 +12664,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" s="1" t="s">
         <v>576</v>
       </c>
@@ -12087,7 +12708,7 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" s="1" t="s">
         <v>579</v>
       </c>
@@ -12135,7 +12756,7 @@
         <v>39328</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" s="1" t="s">
         <v>583</v>
       </c>
@@ -12179,7 +12800,7 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" s="1" t="s">
         <v>586</v>
       </c>
@@ -12227,7 +12848,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" s="1" t="s">
         <v>588</v>
       </c>
@@ -12271,7 +12892,7 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" s="1" t="s">
         <v>591</v>
       </c>
@@ -12321,7 +12942,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" s="1" t="s">
         <v>593</v>
       </c>
@@ -12365,7 +12986,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" s="1" t="s">
         <v>596</v>
       </c>
@@ -12413,7 +13034,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" s="1" t="s">
         <v>599</v>
       </c>
@@ -12461,7 +13082,7 @@
         <v>39009</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" s="1" t="s">
         <v>600</v>
       </c>
@@ -12505,7 +13126,7 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" s="1" t="s">
         <v>602</v>
       </c>
@@ -12549,7 +13170,7 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" s="1" t="s">
         <v>603</v>
       </c>
@@ -12589,7 +13210,7 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" s="1" t="s">
         <v>606</v>
       </c>
@@ -12635,7 +13256,7 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" s="1" t="s">
         <v>609</v>
       </c>
@@ -12679,7 +13300,7 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" s="1" t="s">
         <v>610</v>
       </c>
@@ -12719,7 +13340,7 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
@@ -12767,7 +13388,7 @@
         <v>39464</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" s="1" t="s">
         <v>615</v>
       </c>
@@ -12811,7 +13432,7 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" s="1" t="s">
         <v>618</v>
       </c>
@@ -12855,7 +13476,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
@@ -12903,7 +13524,7 @@
         <v>39372</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" s="1" t="s">
         <v>623</v>
       </c>
@@ -12943,7 +13564,7 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" s="1" t="s">
         <v>626</v>
       </c>
@@ -12983,7 +13604,7 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" s="1" t="s">
         <v>629</v>
       </c>
@@ -13031,7 +13652,7 @@
         <v>40229</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" s="1" t="s">
         <v>632</v>
       </c>
@@ -13075,7 +13696,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" s="1" t="s">
         <v>635</v>
       </c>
@@ -13123,7 +13744,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" s="1" t="s">
         <v>638</v>
       </c>
@@ -13171,7 +13792,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" s="1" t="s">
         <v>641</v>
       </c>
@@ -13219,7 +13840,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" s="1" t="s">
         <v>643</v>
       </c>
@@ -13263,7 +13884,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" s="1" t="s">
         <v>645</v>
       </c>
@@ -13309,7 +13930,7 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" s="1" t="s">
         <v>648</v>
       </c>
@@ -13357,7 +13978,7 @@
         <v>39478</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" s="1" t="s">
         <v>651</v>
       </c>
@@ -13401,7 +14022,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" s="1" t="s">
         <v>652</v>
       </c>
@@ -13449,7 +14070,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" s="1" t="s">
         <v>655</v>
       </c>
@@ -13493,7 +14114,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" s="1" t="s">
         <v>658</v>
       </c>
@@ -13537,7 +14158,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" s="1" t="s">
         <v>659</v>
       </c>
@@ -13581,7 +14202,7 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" s="1" t="s">
         <v>662</v>
       </c>
@@ -13625,7 +14246,7 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" s="1" t="s">
         <v>666</v>
       </c>
@@ -13665,7 +14286,7 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" s="1" t="s">
         <v>668</v>
       </c>
@@ -13709,7 +14330,7 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" s="1" t="s">
         <v>671</v>
       </c>
@@ -13753,7 +14374,7 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" s="1" t="s">
         <v>674</v>
       </c>
@@ -13793,7 +14414,7 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" s="1" t="s">
         <v>676</v>
       </c>
@@ -13835,7 +14456,7 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" s="1" t="s">
         <v>677</v>
       </c>
@@ -13879,7 +14500,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" s="1" t="s">
         <v>680</v>
       </c>
@@ -13923,7 +14544,7 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" s="1" t="s">
         <v>683</v>
       </c>
@@ -13967,7 +14588,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" s="1" t="s">
         <v>685</v>
       </c>
@@ -14009,7 +14630,7 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" s="1" t="s">
         <v>688</v>
       </c>
@@ -14051,7 +14672,7 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" s="1" t="s">
         <v>691</v>
       </c>
@@ -14095,7 +14716,7 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" s="1" t="s">
         <v>694</v>
       </c>
@@ -14135,7 +14756,7 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" s="1" t="s">
         <v>698</v>
       </c>
@@ -14179,7 +14800,7 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" s="1" t="s">
         <v>701</v>
       </c>
@@ -14221,7 +14842,7 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" s="1" t="s">
         <v>704</v>
       </c>
@@ -14263,7 +14884,7 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" s="1" t="s">
         <v>705</v>
       </c>
@@ -14307,7 +14928,7 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" s="1" t="s">
         <v>706</v>
       </c>
@@ -14351,7 +14972,7 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" s="1" t="s">
         <v>709</v>
       </c>
@@ -14399,7 +15020,7 @@
         <v>39528</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" s="1" t="s">
         <v>712</v>
       </c>
@@ -14443,7 +15064,7 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" s="1" t="s">
         <v>714</v>
       </c>
@@ -14483,7 +15104,7 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" s="1" t="s">
         <v>715</v>
       </c>
@@ -14527,7 +15148,7 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" s="1" t="s">
         <v>717</v>
       </c>
@@ -14573,7 +15194,7 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" s="1" t="s">
         <v>720</v>
       </c>
@@ -14611,7 +15232,7 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" s="1" t="s">
         <v>723</v>
       </c>
@@ -14655,7 +15276,7 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" s="1" t="s">
         <v>726</v>
       </c>
@@ -14699,7 +15320,7 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" s="1" t="s">
         <v>729</v>
       </c>
@@ -14737,7 +15358,7 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" s="1" t="s">
         <v>731</v>
       </c>
@@ -14781,7 +15402,7 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" s="1" t="s">
         <v>733</v>
       </c>
@@ -14825,7 +15446,7 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" s="1" t="s">
         <v>735</v>
       </c>
@@ -14869,7 +15490,7 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" s="1" t="s">
         <v>738</v>
       </c>
@@ -14913,7 +15534,7 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" s="1" t="s">
         <v>740</v>
       </c>
@@ -14957,7 +15578,7 @@
       </c>
       <c r="R255" s="1"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" s="1" t="s">
         <v>746</v>
       </c>
@@ -15001,7 +15622,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" s="1" t="s">
         <v>748</v>
       </c>
@@ -15045,7 +15666,7 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" s="1" t="s">
         <v>750</v>
       </c>
@@ -15085,7 +15706,7 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" s="1" t="s">
         <v>751</v>
       </c>
@@ -15129,7 +15750,7 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18">
       <c r="A260" s="1" t="s">
         <v>755</v>
       </c>
@@ -15175,7 +15796,7 @@
         <v>38998</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" s="1" t="s">
         <v>759</v>
       </c>
@@ -15219,7 +15840,7 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" s="1" t="s">
         <v>762</v>
       </c>
@@ -15263,7 +15884,7 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" s="1" t="s">
         <v>764</v>
       </c>
@@ -15307,7 +15928,7 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" s="1" t="s">
         <v>766</v>
       </c>
@@ -15351,7 +15972,7 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" s="1" t="s">
         <v>768</v>
       </c>
@@ -15395,7 +16016,7 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" s="1" t="s">
         <v>770</v>
       </c>
@@ -15439,7 +16060,7 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" s="1" t="s">
         <v>772</v>
       </c>
@@ -15483,7 +16104,7 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" s="1" t="s">
         <v>774</v>
       </c>
@@ -15527,7 +16148,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" s="1" t="s">
         <v>776</v>
       </c>
@@ -15571,7 +16192,7 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" s="1" t="s">
         <v>779</v>
       </c>
@@ -15615,7 +16236,7 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" s="1" t="s">
         <v>781</v>
       </c>
@@ -15659,7 +16280,7 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" s="1" t="s">
         <v>784</v>
       </c>
@@ -15701,7 +16322,7 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" s="1" t="s">
         <v>786</v>
       </c>
@@ -15743,7 +16364,7 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" s="1" t="s">
         <v>787</v>
       </c>
@@ -15785,7 +16406,7 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" s="1" t="s">
         <v>790</v>
       </c>
@@ -15827,7 +16448,7 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" s="1" t="s">
         <v>793</v>
       </c>
@@ -15869,7 +16490,7 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" s="1" t="s">
         <v>795</v>
       </c>
@@ -15911,7 +16532,7 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" s="1" t="s">
         <v>797</v>
       </c>
@@ -15955,7 +16576,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" s="1" t="s">
         <v>799</v>
       </c>
@@ -15995,7 +16616,7 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" s="1" t="s">
         <v>800</v>
       </c>
@@ -16039,7 +16660,7 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" s="1" t="s">
         <v>803</v>
       </c>
@@ -16087,7 +16708,7 @@
         <v>39865</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" s="1" t="s">
         <v>807</v>
       </c>
@@ -16131,7 +16752,7 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18">
       <c r="A283" s="1" t="s">
         <v>809</v>
       </c>
@@ -16175,7 +16796,7 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18">
       <c r="A284" s="1" t="s">
         <v>811</v>
       </c>
@@ -16223,7 +16844,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18">
       <c r="A285" s="1" t="s">
         <v>814</v>
       </c>
@@ -16267,7 +16888,7 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" s="1" t="s">
         <v>817</v>
       </c>
@@ -16315,7 +16936,7 @@
         <v>39877</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" s="1" t="s">
         <v>820</v>
       </c>
@@ -16357,7 +16978,7 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" s="1" t="s">
         <v>822</v>
       </c>
@@ -16401,7 +17022,7 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18">
       <c r="A289" s="1" t="s">
         <v>824</v>
       </c>
@@ -16445,7 +17066,7 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18">
       <c r="A290" s="1" t="s">
         <v>826</v>
       </c>
@@ -16489,7 +17110,7 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18">
       <c r="A291" s="1" t="s">
         <v>829</v>
       </c>
@@ -16537,7 +17158,7 @@
         <v>40229</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18">
       <c r="A292" s="1" t="s">
         <v>832</v>
       </c>
@@ -16585,7 +17206,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18">
       <c r="A293" s="1" t="s">
         <v>834</v>
       </c>
@@ -16635,7 +17256,7 @@
         <v>39898</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18">
       <c r="A294" s="1" t="s">
         <v>838</v>
       </c>
@@ -16679,7 +17300,7 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18">
       <c r="A295" s="1" t="s">
         <v>840</v>
       </c>
@@ -16723,7 +17344,7 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18">
       <c r="A296" s="1" t="s">
         <v>843</v>
       </c>
@@ -16771,7 +17392,7 @@
         <v>40062</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18">
       <c r="A297" s="1" t="s">
         <v>845</v>
       </c>
@@ -16819,7 +17440,7 @@
         <v>40253</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18">
       <c r="A298" s="1" t="s">
         <v>847</v>
       </c>
@@ -16867,7 +17488,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18">
       <c r="A299" s="1" t="s">
         <v>849</v>
       </c>
@@ -16915,7 +17536,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18">
       <c r="A300" s="1" t="s">
         <v>851</v>
       </c>
@@ -16959,7 +17580,7 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18">
       <c r="A301" s="1" t="s">
         <v>853</v>
       </c>
@@ -17003,7 +17624,7 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18">
       <c r="A302" s="1" t="s">
         <v>855</v>
       </c>
@@ -17047,7 +17668,7 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18">
       <c r="A303" s="1" t="s">
         <v>858</v>
       </c>
@@ -17091,7 +17712,7 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18">
       <c r="A304" s="1" t="s">
         <v>861</v>
       </c>
@@ -17135,7 +17756,7 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18">
       <c r="A305" s="1" t="s">
         <v>864</v>
       </c>
@@ -17179,7 +17800,7 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18">
       <c r="A306" s="1" t="s">
         <v>865</v>
       </c>
@@ -17227,7 +17848,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18">
       <c r="A307" s="1" t="s">
         <v>867</v>
       </c>
@@ -17269,7 +17890,7 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18">
       <c r="A308" s="1" t="s">
         <v>869</v>
       </c>
@@ -17313,7 +17934,7 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18">
       <c r="A309" s="1" t="s">
         <v>872</v>
       </c>
@@ -17357,7 +17978,7 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18">
       <c r="A310" s="1" t="s">
         <v>874</v>
       </c>
@@ -17399,7 +18020,7 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18">
       <c r="A311" s="1" t="s">
         <v>876</v>
       </c>
@@ -17443,7 +18064,7 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18">
       <c r="A312" s="1" t="s">
         <v>877</v>
       </c>
@@ -17487,7 +18108,7 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18">
       <c r="A313" s="1" t="s">
         <v>880</v>
       </c>
@@ -17535,7 +18156,7 @@
         <v>40726</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18">
       <c r="A314" s="1" t="s">
         <v>883</v>
       </c>
@@ -17577,7 +18198,7 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18">
       <c r="A315" s="1" t="s">
         <v>885</v>
       </c>
@@ -17608,14 +18229,24 @@
       <c r="L315" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M315" s="1"/>
-      <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
+      <c r="M315" s="3">
+        <v>40563</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O315" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="P315" s="1"/>
-      <c r="Q315" s="1"/>
-      <c r="R315" s="1"/>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q315" s="3">
+        <v>40758</v>
+      </c>
+      <c r="R315" s="3">
+        <v>41308</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316" s="1" t="s">
         <v>888</v>
       </c>
@@ -17657,7 +18288,7 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18">
       <c r="A317" s="1" t="s">
         <v>891</v>
       </c>
@@ -17705,7 +18336,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18">
       <c r="A318" s="1" t="s">
         <v>894</v>
       </c>
@@ -17735,13 +18366,17 @@
         <v>22</v>
       </c>
       <c r="M318" s="1"/>
-      <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
+      <c r="N318" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18">
       <c r="A319" s="1" t="s">
         <v>895</v>
       </c>
@@ -17789,7 +18424,7 @@
         <v>40491</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18">
       <c r="A320" s="1" t="s">
         <v>898</v>
       </c>
@@ -17833,7 +18468,7 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18">
       <c r="A321" s="1" t="s">
         <v>901</v>
       </c>
@@ -17877,7 +18512,7 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18">
       <c r="A322" s="1" t="s">
         <v>905</v>
       </c>
@@ -17921,7 +18556,7 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18">
       <c r="A323" s="1" t="s">
         <v>907</v>
       </c>
@@ -17963,7 +18598,7 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18">
       <c r="A324" s="1" t="s">
         <v>910</v>
       </c>
@@ -18005,7 +18640,7 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18">
       <c r="A325" s="1" t="s">
         <v>912</v>
       </c>
@@ -18047,7 +18682,7 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18">
       <c r="A326" s="1" t="s">
         <v>914</v>
       </c>
@@ -18089,7 +18724,7 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18">
       <c r="A327" s="1" t="s">
         <v>916</v>
       </c>
@@ -18133,7 +18768,7 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18">
       <c r="A328" s="1" t="s">
         <v>919</v>
       </c>
@@ -18177,7 +18812,7 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18">
       <c r="A329" s="1" t="s">
         <v>922</v>
       </c>
@@ -18225,7 +18860,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18">
       <c r="A330" s="1" t="s">
         <v>925</v>
       </c>
@@ -18261,7 +18896,7 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18">
       <c r="A331" s="1" t="s">
         <v>928</v>
       </c>
@@ -18305,7 +18940,7 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18">
       <c r="A332" s="1" t="s">
         <v>929</v>
       </c>
@@ -18349,7 +18984,7 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18">
       <c r="A333" s="1" t="s">
         <v>932</v>
       </c>
@@ -18397,7 +19032,7 @@
         <v>40687</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18">
       <c r="A334" s="1" t="s">
         <v>936</v>
       </c>
@@ -18441,7 +19076,7 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18">
       <c r="A335" s="1" t="s">
         <v>939</v>
       </c>
@@ -18485,7 +19120,7 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18">
       <c r="A336" s="1" t="s">
         <v>942</v>
       </c>
@@ -18529,7 +19164,7 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18">
       <c r="A337" s="1" t="s">
         <v>945</v>
       </c>
@@ -18573,7 +19208,7 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18">
       <c r="A338" s="1" t="s">
         <v>946</v>
       </c>
@@ -18617,7 +19252,7 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18">
       <c r="A339" s="1" t="s">
         <v>948</v>
       </c>
@@ -18641,7 +19276,7 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18">
       <c r="A340" s="1" t="s">
         <v>949</v>
       </c>
@@ -18685,7 +19320,7 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18">
       <c r="A341" s="1" t="s">
         <v>952</v>
       </c>
@@ -18729,7 +19364,7 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18">
       <c r="A342" s="1" t="s">
         <v>955</v>
       </c>
@@ -18773,7 +19408,7 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18">
       <c r="A343" s="1" t="s">
         <v>958</v>
       </c>
@@ -18817,7 +19452,7 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18">
       <c r="A344" s="1" t="s">
         <v>960</v>
       </c>
@@ -18861,7 +19496,7 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18">
       <c r="A345" s="1" t="s">
         <v>963</v>
       </c>
@@ -18899,7 +19534,7 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18">
       <c r="A346" s="1" t="s">
         <v>966</v>
       </c>
@@ -18947,7 +19582,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18">
       <c r="A347" s="1" t="s">
         <v>968</v>
       </c>
@@ -18995,7 +19630,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18">
       <c r="A348" s="1" t="s">
         <v>970</v>
       </c>
@@ -19039,7 +19674,7 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18">
       <c r="A349" s="1" t="s">
         <v>973</v>
       </c>
@@ -19083,7 +19718,7 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18">
       <c r="A350" s="1" t="s">
         <v>975</v>
       </c>
@@ -19107,7 +19742,7 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18">
       <c r="A351" s="1" t="s">
         <v>976</v>
       </c>
@@ -19145,7 +19780,7 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18">
       <c r="A352" s="1" t="s">
         <v>979</v>
       </c>
@@ -19189,7 +19824,7 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18">
       <c r="A353" s="1" t="s">
         <v>983</v>
       </c>
@@ -19225,7 +19860,7 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18">
       <c r="A354" s="1" t="s">
         <v>984</v>
       </c>
@@ -19267,7 +19902,7 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18">
       <c r="A355" s="1" t="s">
         <v>986</v>
       </c>
@@ -19305,7 +19940,7 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18">
       <c r="A356" s="1" t="s">
         <v>988</v>
       </c>
@@ -19349,7 +19984,7 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18">
       <c r="A357" s="1" t="s">
         <v>989</v>
       </c>
@@ -19391,7 +20026,7 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18">
       <c r="A358" s="1" t="s">
         <v>991</v>
       </c>
@@ -19435,7 +20070,7 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18">
       <c r="A359" s="1" t="s">
         <v>993</v>
       </c>
@@ -19479,7 +20114,7 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18">
       <c r="A360" s="1" t="s">
         <v>997</v>
       </c>
@@ -19523,7 +20158,7 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18">
       <c r="A361" s="1" t="s">
         <v>1000</v>
       </c>
@@ -19565,7 +20200,7 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18">
       <c r="A362" s="1" t="s">
         <v>1003</v>
       </c>
@@ -19603,7 +20238,7 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18">
       <c r="A363" s="1" t="s">
         <v>1005</v>
       </c>
@@ -19647,7 +20282,7 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18">
       <c r="A364" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19691,7 +20326,7 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18">
       <c r="A365" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19735,7 +20370,7 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18">
       <c r="A366" s="1" t="s">
         <v>1013</v>
       </c>
@@ -19779,7 +20414,7 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18">
       <c r="A367" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19823,7 +20458,7 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18">
       <c r="A368" s="1" t="s">
         <v>1020</v>
       </c>
@@ -19861,7 +20496,7 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18">
       <c r="A369" s="1" t="s">
         <v>1023</v>
       </c>
@@ -19905,7 +20540,7 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18">
       <c r="A370" s="1" t="s">
         <v>1026</v>
       </c>
@@ -19949,7 +20584,7 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18">
       <c r="A371" s="1" t="s">
         <v>1030</v>
       </c>
@@ -19993,7 +20628,7 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18">
       <c r="A372" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20037,7 +20672,7 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18">
       <c r="A373" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20081,7 +20716,7 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18">
       <c r="A374" s="1" t="s">
         <v>1037</v>
       </c>
@@ -20125,7 +20760,7 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18">
       <c r="A375" s="1" t="s">
         <v>1040</v>
       </c>
@@ -20169,7 +20804,7 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18">
       <c r="A376" s="1" t="s">
         <v>1043</v>
       </c>
@@ -20213,7 +20848,7 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18">
       <c r="A377" s="1" t="s">
         <v>1045</v>
       </c>
@@ -20257,7 +20892,7 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18">
       <c r="A378" s="1" t="s">
         <v>1047</v>
       </c>
@@ -20301,7 +20936,7 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18">
       <c r="A379" s="1" t="s">
         <v>1050</v>
       </c>
@@ -20347,7 +20982,7 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18">
       <c r="A380" s="1" t="s">
         <v>1052</v>
       </c>
@@ -20391,7 +21026,7 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18">
       <c r="A381" s="1" t="s">
         <v>1055</v>
       </c>
@@ -20435,7 +21070,7 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18">
       <c r="A382" s="1" t="s">
         <v>1057</v>
       </c>
@@ -20479,7 +21114,7 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18">
       <c r="A383" s="1" t="s">
         <v>1059</v>
       </c>
@@ -20523,7 +21158,7 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18">
       <c r="A384" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20567,7 +21202,7 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18">
       <c r="A385" s="1" t="s">
         <v>1064</v>
       </c>
@@ -20611,7 +21246,7 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18">
       <c r="A386" s="1" t="s">
         <v>1067</v>
       </c>
@@ -20655,7 +21290,7 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18">
       <c r="A387" s="1" t="s">
         <v>1068</v>
       </c>
@@ -20699,7 +21334,7 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18">
       <c r="A388" s="1" t="s">
         <v>1071</v>
       </c>
@@ -20743,7 +21378,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18">
       <c r="A389" s="1" t="s">
         <v>1072</v>
       </c>
@@ -20787,7 +21422,7 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18">
       <c r="A390" s="1" t="s">
         <v>1074</v>
       </c>
@@ -20829,7 +21464,7 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18">
       <c r="A391" s="1" t="s">
         <v>1077</v>
       </c>
@@ -20873,7 +21508,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18">
       <c r="A392" s="1" t="s">
         <v>1081</v>
       </c>
@@ -20917,7 +21552,7 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18">
       <c r="A393" s="1" t="s">
         <v>1084</v>
       </c>
@@ -20961,7 +21596,7 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18">
       <c r="A394" s="1" t="s">
         <v>1085</v>
       </c>
@@ -21005,7 +21640,7 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18">
       <c r="A395" s="1" t="s">
         <v>1086</v>
       </c>
@@ -21049,7 +21684,7 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18">
       <c r="A396" s="1" t="s">
         <v>1088</v>
       </c>
@@ -21093,7 +21728,7 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18">
       <c r="A397" s="1" t="s">
         <v>1089</v>
       </c>
@@ -21137,7 +21772,7 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18">
       <c r="A398" s="1" t="s">
         <v>1091</v>
       </c>
@@ -21181,7 +21816,7 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18">
       <c r="A399" s="1" t="s">
         <v>1094</v>
       </c>
@@ -21225,7 +21860,7 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18">
       <c r="A400" s="1" t="s">
         <v>1096</v>
       </c>
@@ -21269,7 +21904,7 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18">
       <c r="A401" s="1" t="s">
         <v>1099</v>
       </c>
@@ -21313,7 +21948,7 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18">
       <c r="A402" s="1" t="s">
         <v>1102</v>
       </c>
@@ -21357,7 +21992,7 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18">
       <c r="A403" s="1" t="s">
         <v>1105</v>
       </c>
@@ -21401,7 +22036,7 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18">
       <c r="A404" s="1" t="s">
         <v>1108</v>
       </c>
@@ -21445,7 +22080,7 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18">
       <c r="A405" s="1" t="s">
         <v>1111</v>
       </c>
@@ -21489,7 +22124,7 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:18">
       <c r="A406" s="1" t="s">
         <v>1115</v>
       </c>
@@ -21533,7 +22168,7 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18">
       <c r="A407" s="1" t="s">
         <v>1118</v>
       </c>
@@ -21577,7 +22212,7 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18">
       <c r="A408" s="1" t="s">
         <v>1119</v>
       </c>
@@ -21621,7 +22256,7 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18">
       <c r="A409" s="1" t="s">
         <v>1122</v>
       </c>
@@ -21667,7 +22302,7 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18">
       <c r="A410" s="1" t="s">
         <v>1124</v>
       </c>
@@ -21711,7 +22346,7 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18">
       <c r="A411" s="1" t="s">
         <v>1126</v>
       </c>
@@ -21755,7 +22390,7 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18">
       <c r="A412" s="1" t="s">
         <v>1130</v>
       </c>
@@ -21799,7 +22434,7 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18">
       <c r="A413" s="1" t="s">
         <v>1132</v>
       </c>
@@ -21843,7 +22478,7 @@
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18">
       <c r="A414" s="1" t="s">
         <v>1134</v>
       </c>
@@ -21887,7 +22522,7 @@
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18">
       <c r="A415" s="1" t="s">
         <v>1137</v>
       </c>
@@ -21931,7 +22566,7 @@
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18">
       <c r="A416" s="1" t="s">
         <v>1139</v>
       </c>
@@ -21975,7 +22610,7 @@
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18">
       <c r="A417" s="1" t="s">
         <v>1142</v>
       </c>
@@ -22019,7 +22654,7 @@
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18">
       <c r="A418" s="1" t="s">
         <v>1145</v>
       </c>
@@ -22065,7 +22700,7 @@
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18">
       <c r="A419" s="1" t="s">
         <v>1149</v>
       </c>
@@ -22109,7 +22744,7 @@
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18">
       <c r="A420" s="1" t="s">
         <v>1151</v>
       </c>
@@ -22155,7 +22790,7 @@
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18">
       <c r="A421" s="1" t="s">
         <v>1154</v>
       </c>
@@ -22201,7 +22836,7 @@
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18">
       <c r="A422" s="1" t="s">
         <v>1156</v>
       </c>
@@ -22245,7 +22880,7 @@
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18">
       <c r="A423" s="1" t="s">
         <v>1159</v>
       </c>
@@ -22291,55 +22926,95 @@
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18">
       <c r="A424" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="B424" s="1">
         <v>7</v>
       </c>
-      <c r="C424" s="1"/>
+      <c r="C424" s="1">
+        <v>1026926</v>
+      </c>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
-      <c r="H424" s="2"/>
+      <c r="F424" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>1231</v>
+      </c>
       <c r="I424" s="2"/>
-      <c r="J424" s="1"/>
-      <c r="K424" s="1"/>
-      <c r="L424" s="1"/>
-      <c r="M424" s="1"/>
-      <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
+      <c r="J424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K424" s="3">
+        <v>41509</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M424" s="3">
+        <v>41900</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18">
       <c r="A425" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="B425" s="1">
         <v>10</v>
       </c>
-      <c r="C425" s="1"/>
+      <c r="C425" s="1">
+        <v>1042143</v>
+      </c>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-      <c r="H425" s="2"/>
+      <c r="F425" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>1373</v>
+      </c>
       <c r="I425" s="2"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1"/>
-      <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
+      <c r="J425" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K425" s="3">
+        <v>41509</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M425" s="3">
+        <v>41872</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18">
       <c r="A426" s="1" t="s">
         <v>1162</v>
       </c>
@@ -22385,7 +23060,7 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18">
       <c r="A427" s="1" t="s">
         <v>1165</v>
       </c>
@@ -22429,31 +23104,51 @@
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18">
       <c r="A428" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="B428" s="1">
         <v>0</v>
       </c>
-      <c r="C428" s="1"/>
+      <c r="C428" s="1">
+        <v>1023969</v>
+      </c>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="2"/>
+      <c r="F428" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1375</v>
+      </c>
       <c r="I428" s="2"/>
-      <c r="J428" s="1"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
-      <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
+      <c r="J428" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K428" s="3">
+        <v>41528</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M428" s="3">
+        <v>41837</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O428" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18">
       <c r="A429" s="1" t="s">
         <v>1169</v>
       </c>
@@ -22497,105 +23192,183 @@
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18">
       <c r="A430" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="B430" s="1">
         <v>0</v>
       </c>
-      <c r="C430" s="1"/>
+      <c r="C430" s="1">
+        <v>1014342</v>
+      </c>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
-      <c r="H430" s="2"/>
+      <c r="F430" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>1378</v>
+      </c>
       <c r="I430" s="2"/>
-      <c r="J430" s="1"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1"/>
+      <c r="J430" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K430" s="3">
+        <v>41533</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="M430" s="1"/>
-      <c r="N430" s="1"/>
-      <c r="O430" s="1"/>
+      <c r="N430" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18">
       <c r="A431" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="B431" s="1">
         <v>5</v>
       </c>
-      <c r="C431" s="1"/>
+      <c r="C431" s="1">
+        <v>1057923</v>
+      </c>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
-      <c r="H431" s="2"/>
+      <c r="F431" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>1243</v>
+      </c>
       <c r="I431" s="2"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
+      <c r="J431" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K431" s="3">
+        <v>41612</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M431" s="3">
+        <v>41984</v>
+      </c>
+      <c r="N431" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18">
       <c r="A432" s="1" t="s">
-        <v>1173</v>
+        <v>1236</v>
       </c>
       <c r="B432" s="1">
         <v>4</v>
       </c>
-      <c r="C432" s="1"/>
+      <c r="C432" s="1">
+        <v>1025739</v>
+      </c>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
-      <c r="F432" s="1"/>
-      <c r="G432" s="1"/>
-      <c r="H432" s="2"/>
+      <c r="F432" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>1239</v>
+      </c>
       <c r="I432" s="2"/>
-      <c r="J432" s="1"/>
-      <c r="K432" s="1"/>
-      <c r="L432" s="1"/>
-      <c r="M432" s="1"/>
-      <c r="N432" s="1"/>
-      <c r="O432" s="1"/>
+      <c r="J432" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K432" s="3">
+        <v>41669</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M432" s="3">
+        <v>41900</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18">
       <c r="A433" s="1" t="s">
-        <v>1174</v>
+        <v>1383</v>
       </c>
       <c r="B433" s="1">
         <v>7</v>
       </c>
-      <c r="C433" s="1"/>
+      <c r="C433" s="1">
+        <v>1015760</v>
+      </c>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
-      <c r="G433" s="1"/>
-      <c r="H433" s="2"/>
+      <c r="F433" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>1381</v>
+      </c>
       <c r="I433" s="2"/>
-      <c r="J433" s="1"/>
-      <c r="K433" s="1"/>
-      <c r="L433" s="1"/>
-      <c r="M433" s="1"/>
-      <c r="N433" s="1"/>
-      <c r="O433" s="1"/>
+      <c r="J433" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K433" s="3">
+        <v>41675</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M433" s="3">
+        <v>41872</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18">
       <c r="A434" s="1" t="s">
-        <v>1175</v>
+        <v>1232</v>
       </c>
       <c r="B434" s="1">
         <v>0</v>
@@ -22603,12 +23376,22 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
-      <c r="F434" s="1"/>
-      <c r="G434" s="1"/>
-      <c r="H434" s="2"/>
+      <c r="F434" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>1234</v>
+      </c>
       <c r="I434" s="2"/>
-      <c r="J434" s="1"/>
-      <c r="K434" s="1"/>
+      <c r="J434" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K434" s="3">
+        <v>41675</v>
+      </c>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
@@ -22617,33 +23400,53 @@
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18">
       <c r="A435" s="1" t="s">
-        <v>1176</v>
+        <v>1382</v>
       </c>
       <c r="B435" s="1">
         <v>9</v>
       </c>
-      <c r="C435" s="1"/>
+      <c r="C435" s="1">
+        <v>1045440</v>
+      </c>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
-      <c r="F435" s="1"/>
-      <c r="G435" s="1"/>
-      <c r="H435" s="2"/>
+      <c r="F435" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>1385</v>
+      </c>
       <c r="I435" s="2"/>
-      <c r="J435" s="1"/>
-      <c r="K435" s="1"/>
-      <c r="L435" s="1"/>
-      <c r="M435" s="1"/>
-      <c r="N435" s="1"/>
-      <c r="O435" s="1"/>
+      <c r="J435" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K435" s="5">
+        <v>41644</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M435" s="3">
+        <v>41837</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O435" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18">
       <c r="A436" s="1" t="s">
-        <v>1177</v>
+        <v>1244</v>
       </c>
       <c r="B436" s="1">
         <v>0</v>
@@ -22657,7 +23460,7 @@
         <v>336</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="H436" s="2">
         <v>240</v>
@@ -22685,9 +23488,9 @@
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18">
       <c r="A437" s="1" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B437" s="1">
         <v>0</v>
@@ -22723,9 +23526,9 @@
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18">
       <c r="A438" s="1" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B438" s="1">
         <v>0</v>
@@ -22747,9 +23550,9 @@
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18">
       <c r="A439" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B439" s="1">
         <v>0</v>
@@ -22761,14 +23564,14 @@
         <v>580</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="H439" s="2">
         <v>40099</v>
       </c>
       <c r="I439" s="2"/>
       <c r="J439" s="1" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="K439" s="1"/>
       <c r="L439" s="1" t="s">
@@ -22781,9 +23584,9 @@
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18">
       <c r="A440" s="1" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B440" s="1">
         <v>0</v>
@@ -22794,7 +23597,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="G440" s="1" t="s">
         <v>296</v>
@@ -22825,9 +23628,9 @@
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18">
       <c r="A441" s="1" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B441" s="1">
         <v>0</v>
@@ -22839,7 +23642,7 @@
         <v>260</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="H441" s="2">
         <v>60015</v>
@@ -22863,9 +23666,9 @@
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18">
       <c r="A442" s="1" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B442" s="1">
         <v>0</v>
@@ -22877,7 +23680,7 @@
         <v>288</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="H442" s="2"/>
       <c r="I442" s="2">
@@ -22903,9 +23706,9 @@
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18">
       <c r="A443" s="1" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B443" s="1">
         <v>0</v>
@@ -22914,10 +23717,10 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="H443" s="2"/>
       <c r="I443" s="2">
@@ -22941,9 +23744,9 @@
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18">
       <c r="A444" s="1" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B444" s="1">
         <v>0</v>
@@ -22952,10 +23755,10 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="H444" s="2">
         <v>17774</v>
@@ -22979,9 +23782,9 @@
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18">
       <c r="A445" s="1" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B445" s="1">
         <v>0</v>
@@ -22995,7 +23798,7 @@
         <v>166</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="H445" s="2">
         <v>6045</v>
@@ -23021,9 +23824,9 @@
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18">
       <c r="A446" s="1" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B446" s="1">
         <v>0</v>
@@ -23035,7 +23838,7 @@
         <v>421</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="H446" s="2">
         <v>8761</v>
@@ -23059,9 +23862,9 @@
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18">
       <c r="A447" s="1" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B447" s="1">
         <v>0</v>
@@ -23073,7 +23876,7 @@
         <v>818</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="H447" s="2"/>
       <c r="I447" s="2">
@@ -23097,9 +23900,9 @@
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18">
       <c r="A448" s="1" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B448" s="1">
         <v>0</v>
@@ -23108,7 +23911,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="G448" s="1" t="s">
         <v>202</v>
@@ -23135,9 +23938,9 @@
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18">
       <c r="A449" s="1" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B449" s="1">
         <v>0</v>
@@ -23181,9 +23984,9 @@
         <v>36679</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18">
       <c r="A450" s="1" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="B450" s="1">
         <v>0</v>
@@ -23194,7 +23997,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="G450" s="1" t="s">
         <v>435</v>
@@ -23223,9 +24026,9 @@
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18">
       <c r="A451" s="1" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B451" s="1">
         <v>0</v>
@@ -23265,9 +24068,9 @@
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18">
       <c r="A452" s="1" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B452" s="1">
         <v>0</v>
@@ -23278,7 +24081,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="G452" s="1" t="s">
         <v>934</v>
@@ -23298,7 +24101,7 @@
         <v>38323</v>
       </c>
       <c r="N452" s="1" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="O452" s="1" t="s">
         <v>46</v>
@@ -23311,9 +24114,9 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18">
       <c r="A453" s="1" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="B453" s="1">
         <v>0</v>
@@ -23324,7 +24127,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="G453" s="1" t="s">
         <v>92</v>
@@ -23355,9 +24158,9 @@
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18">
       <c r="A454" s="1" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B454" s="1">
         <v>0</v>
@@ -23368,10 +24171,10 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2">
@@ -23399,9 +24202,9 @@
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18">
       <c r="A455" s="1" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B455" s="1">
         <v>0</v>
@@ -23415,7 +24218,7 @@
         <v>327</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="H455" s="2">
         <v>8810</v>
@@ -23443,9 +24246,9 @@
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18">
       <c r="A456" s="1" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B456" s="1">
         <v>0</v>
@@ -23457,7 +24260,7 @@
         <v>681</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="H456" s="2">
         <v>18418</v>
@@ -23483,9 +24286,9 @@
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18">
       <c r="A457" s="1" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B457" s="1">
         <v>0</v>
@@ -23494,10 +24297,10 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
@@ -23517,9 +24320,9 @@
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18">
       <c r="A458" s="1" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B458" s="1">
         <v>0</v>
@@ -23533,7 +24336,7 @@
         <v>260</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="H458" s="2">
         <v>16183</v>
@@ -23552,7 +24355,7 @@
         <v>37216</v>
       </c>
       <c r="N458" s="1" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="O458" s="1" t="s">
         <v>46</v>
@@ -23565,9 +24368,9 @@
         <v>38287</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18">
       <c r="A459" s="1" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B459" s="1">
         <v>0</v>
@@ -23581,14 +24384,14 @@
         <v>937</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="H459" s="2"/>
       <c r="I459" s="2">
         <v>511287</v>
       </c>
       <c r="J459" s="1" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="K459" s="3">
         <v>36480</v>
@@ -23609,9 +24412,9 @@
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18">
       <c r="A460" s="1" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="B460" s="1">
         <v>0</v>
@@ -23620,7 +24423,7 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>812</v>
@@ -23647,9 +24450,9 @@
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18">
       <c r="A461" s="1" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="B461" s="1">
         <v>0</v>
@@ -23663,13 +24466,13 @@
         <v>859</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="H461" s="2">
         <v>1858</v>
       </c>
       <c r="I461" s="2"/>
-      <c r="J461" s="4" t="s">
+      <c r="J461" s="6" t="s">
         <v>147</v>
       </c>
       <c r="K461" s="3">
@@ -23695,9 +24498,9 @@
         <v>36860</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18">
       <c r="A462" s="1" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B462" s="1">
         <v>0</v>
@@ -23708,10 +24511,10 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="H462" s="2">
         <v>11744</v>
@@ -23739,7 +24542,1391 @@
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
     </row>
+    <row r="463" spans="1:18">
+      <c r="A463" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B463" s="1">
+        <v>0</v>
+      </c>
+      <c r="C463" s="1">
+        <v>1044626</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H463" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K463" s="5">
+        <v>41675</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="464" spans="1:18">
+      <c r="A464" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B464" s="1">
+        <v>0</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H464" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K464" s="5">
+        <v>41669</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15">
+      <c r="A465" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B465" s="4">
+        <v>0</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H465" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K465" s="5">
+        <v>41722</v>
+      </c>
+      <c r="L465" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M465" s="5">
+        <v>42019</v>
+      </c>
+      <c r="N465" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O465" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15">
+      <c r="A466" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B466" s="4">
+        <v>0</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H466" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K466" s="5">
+        <v>41722</v>
+      </c>
+      <c r="L466" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="N466" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="O466" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15">
+      <c r="A467" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B467" s="4">
+        <v>0</v>
+      </c>
+      <c r="C467" s="4">
+        <v>1061542</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H467" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K467" s="5">
+        <v>41722</v>
+      </c>
+      <c r="L467" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M467" s="5">
+        <v>41984</v>
+      </c>
+      <c r="N467" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O467" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15">
+      <c r="A468" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B468" s="4">
+        <v>0</v>
+      </c>
+      <c r="C468" s="4">
+        <v>106847</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H468" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K468" s="5">
+        <v>41722</v>
+      </c>
+      <c r="L468" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M468" s="5">
+        <v>41928</v>
+      </c>
+      <c r="N468" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O468" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B469" s="4">
+        <v>0</v>
+      </c>
+      <c r="C469" s="4">
+        <v>1020690</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H469" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K469" s="5">
+        <v>41726</v>
+      </c>
+      <c r="L469" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="M469" s="5">
+        <v>42054</v>
+      </c>
+      <c r="N469" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="O469" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15">
+      <c r="A470" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B470" s="4">
+        <v>0</v>
+      </c>
+      <c r="C470" s="4">
+        <v>1023260</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H470" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K470" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L470" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M470" s="5">
+        <v>41928</v>
+      </c>
+      <c r="N470" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O470" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15">
+      <c r="A471" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B471" s="4">
+        <v>0</v>
+      </c>
+      <c r="C471" s="4">
+        <v>1017101</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H471" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K471" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L471" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M471" s="5">
+        <v>41758</v>
+      </c>
+      <c r="N471" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O471" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15">
+      <c r="A472" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B472" s="4">
+        <v>0</v>
+      </c>
+      <c r="C472" s="4">
+        <v>1039190</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H472" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K472" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L472" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M472" s="5">
+        <v>41758</v>
+      </c>
+      <c r="N472" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O472" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15">
+      <c r="A473" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B473" s="4">
+        <v>0</v>
+      </c>
+      <c r="C473" s="4">
+        <v>1051510</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H473" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K473" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L473" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N473" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O473" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15">
+      <c r="A474" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B474" s="4">
+        <v>0</v>
+      </c>
+      <c r="C474" s="4">
+        <v>1032898</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K474" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L474" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="N474" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="O474" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15">
+      <c r="A475" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B475" s="4">
+        <v>0</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K475" s="5">
+        <v>41758</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15">
+      <c r="A476" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B476" s="4">
+        <v>0</v>
+      </c>
+      <c r="C476" s="4">
+        <v>1059264</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K476" s="5">
+        <v>41758</v>
+      </c>
+      <c r="L476" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M476" s="5">
+        <v>41963</v>
+      </c>
+      <c r="N476" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O476" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15">
+      <c r="A477" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B477" s="4">
+        <v>0</v>
+      </c>
+      <c r="C477" s="4">
+        <v>1042668</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K477" s="5">
+        <v>41787</v>
+      </c>
+      <c r="L477" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="N477" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="O477" s="5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15">
+      <c r="A478" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B478" s="4">
+        <v>0</v>
+      </c>
+      <c r="C478" s="4">
+        <v>1064835</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K478" s="5">
+        <v>41787</v>
+      </c>
+      <c r="L478" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M478" s="5">
+        <v>41984</v>
+      </c>
+      <c r="N478" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O478" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15">
+      <c r="A479" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B479" s="4">
+        <v>0</v>
+      </c>
+      <c r="C479" s="4">
+        <v>1039348</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K479" s="5">
+        <v>41789</v>
+      </c>
+      <c r="L479" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M479" s="5">
+        <v>41963</v>
+      </c>
+      <c r="N479" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="O479" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15">
+      <c r="A480" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B480" s="4">
+        <v>0</v>
+      </c>
+      <c r="C480" s="4">
+        <v>1039797</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H480" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K480" s="5">
+        <v>41822</v>
+      </c>
+      <c r="L480" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M480" s="5">
+        <v>42054</v>
+      </c>
+      <c r="N480" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O480" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15">
+      <c r="A481" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B481" s="4">
+        <v>0</v>
+      </c>
+      <c r="C481" s="4">
+        <v>1060980</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K481" s="5">
+        <v>41822</v>
+      </c>
+      <c r="L481" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M481" s="5">
+        <v>41984</v>
+      </c>
+      <c r="N481" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O481" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15">
+      <c r="A482" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B482" s="4">
+        <v>0</v>
+      </c>
+      <c r="C482" s="4">
+        <v>1067725</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K482" s="5">
+        <v>41858</v>
+      </c>
+      <c r="L482" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N482" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O482" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15">
+      <c r="A483" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B483" s="4">
+        <v>0</v>
+      </c>
+      <c r="C483" s="4">
+        <v>1025073</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K483" s="5">
+        <v>41872</v>
+      </c>
+      <c r="L483" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M483" s="5">
+        <v>42082</v>
+      </c>
+      <c r="N483" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O483" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15">
+      <c r="A484" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B484" s="4">
+        <v>0</v>
+      </c>
+      <c r="C484" s="4">
+        <v>1025073</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H484" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K484" s="5">
+        <v>41872</v>
+      </c>
+      <c r="L484" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M484" s="5">
+        <v>42082</v>
+      </c>
+      <c r="N484" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O484" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15">
+      <c r="A485" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B485" s="4">
+        <v>0</v>
+      </c>
+      <c r="C485" s="4">
+        <v>1060774</v>
+      </c>
+      <c r="D485" s="4">
+        <v>1061494</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H485" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K485" s="5">
+        <v>41877</v>
+      </c>
+      <c r="L485" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M485" s="5">
+        <v>42054</v>
+      </c>
+      <c r="N485" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O485" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15">
+      <c r="A486" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B486" s="4">
+        <v>0</v>
+      </c>
+      <c r="C486" s="4">
+        <v>1031216</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H486" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K486" s="5">
+        <v>41877</v>
+      </c>
+      <c r="L486" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M486" s="5">
+        <v>42054</v>
+      </c>
+      <c r="N486" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O486" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15">
+      <c r="A487" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B487" s="4">
+        <v>0</v>
+      </c>
+      <c r="C487" s="4">
+        <v>1032584</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K487" s="5">
+        <v>41877</v>
+      </c>
+      <c r="L487" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="M487" s="5">
+        <v>42145</v>
+      </c>
+      <c r="N487" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O487" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15">
+      <c r="A488" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B488" s="4">
+        <v>0</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K488" s="5">
+        <v>41919</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15">
+      <c r="A489" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B489" s="4">
+        <v>0</v>
+      </c>
+      <c r="C489" s="4">
+        <v>1040688</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H489" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K489" s="5">
+        <v>41927</v>
+      </c>
+      <c r="L489" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M489" s="5">
+        <v>42110</v>
+      </c>
+      <c r="N489" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="O489" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="A490" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B490" s="4">
+        <v>0</v>
+      </c>
+      <c r="C490" s="4">
+        <v>1062099</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K490" s="5">
+        <v>41942</v>
+      </c>
+      <c r="L490" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M490" s="5">
+        <v>42082</v>
+      </c>
+      <c r="N490" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O490" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15">
+      <c r="A491" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B491" s="4">
+        <v>0</v>
+      </c>
+      <c r="C491" s="4">
+        <v>1063648</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K491" s="5">
+        <v>41942</v>
+      </c>
+      <c r="L491" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M491" s="5">
+        <v>42145</v>
+      </c>
+      <c r="N491" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O491" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15">
+      <c r="A492" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B492" s="4">
+        <v>0</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H492" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K492" s="5">
+        <v>41987</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15">
+      <c r="A493" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B493" s="4">
+        <v>0</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H493" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K493" s="5">
+        <v>41983</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15">
+      <c r="A494" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B494" s="4">
+        <v>0</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K494" s="5">
+        <v>42108</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15">
+      <c r="A495" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B495" s="4">
+        <v>0</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H495" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K495" s="5">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15">
+      <c r="A496" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B496" s="4">
+        <v>0</v>
+      </c>
+      <c r="F496" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J496" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K496" s="5">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11">
+      <c r="A497" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B497" s="4">
+        <v>0</v>
+      </c>
+      <c r="F497" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G497" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J497" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K497" s="5">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11">
+      <c r="A498" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B498" s="4">
+        <v>0</v>
+      </c>
+      <c r="F498" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G498" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J498" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K498" s="5">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11">
+      <c r="A499" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B499" s="4">
+        <v>0</v>
+      </c>
+      <c r="F499" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G499" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J499" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K499" s="5">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
+      <c r="A500" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B500" s="4">
+        <v>0</v>
+      </c>
+      <c r="F500" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G500" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J500" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K500" s="5">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
+      <c r="A501" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B501" s="4">
+        <v>0</v>
+      </c>
+      <c r="F501" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G501" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H501" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J501" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K501" s="5">
+        <v>42143</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
+      <c r="A502" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B502" s="4">
+        <v>0</v>
+      </c>
+      <c r="F502" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G502" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H502" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J502" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K502" s="5">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
+      <c r="A503" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B503" s="4">
+        <v>0</v>
+      </c>
+      <c r="F503" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G503" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H503" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J503" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K503" s="5">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
+      <c r="A504" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B504" s="4">
+        <v>0</v>
+      </c>
+      <c r="F504" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G504" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H504" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J504" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K504" s="5">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
+      <c r="A505" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B505" s="4">
+        <v>0</v>
+      </c>
+      <c r="F505" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G505" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H505" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J505" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K505" s="5">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
+      <c r="A506" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B506" s="4">
+        <v>0</v>
+      </c>
+      <c r="F506" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G506" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H506" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J506" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K506" s="5">
+        <v>42249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/lib/assets/cases.xlsx
+++ b/lib/assets/cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="0" windowWidth="25700" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2535" yWindow="0" windowWidth="25695" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1394">
   <si>
     <t>Case Number</t>
   </si>
@@ -4198,6 +4198,9 @@
   </si>
   <si>
     <t>7358</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -4646,7 +4649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4654,31 +4657,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R506"/>
+  <dimension ref="A1:S506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3:S506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="4"/>
+    <col min="1" max="5" width="10.875" style="4"/>
     <col min="6" max="6" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="4"/>
-    <col min="12" max="12" width="24.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="4"/>
-    <col min="14" max="14" width="38.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="4"/>
+    <col min="12" max="12" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="4"/>
+    <col min="14" max="14" width="38.375" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="17" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4733,8 +4736,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4769,8 +4775,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4805,8 +4814,11 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4847,8 +4859,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4885,8 +4900,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -4927,8 +4945,11 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4971,8 +4992,11 @@
       <c r="R7" s="3">
         <v>36595</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -5009,8 +5033,11 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -5045,8 +5072,11 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -5089,8 +5119,11 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -5133,8 +5166,11 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -5171,8 +5207,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -5209,8 +5248,11 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -5253,8 +5295,11 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -5299,8 +5344,11 @@
       <c r="R15" s="3">
         <v>36860</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -5339,8 +5387,11 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -5377,8 +5428,11 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -5415,8 +5469,11 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -5453,8 +5510,11 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -5491,8 +5551,11 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -5529,8 +5592,11 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -5573,8 +5639,11 @@
       <c r="R22" s="3">
         <v>37075</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -5621,8 +5690,11 @@
       <c r="R23" s="3">
         <v>37005</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -5661,8 +5733,11 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -5705,8 +5780,11 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -5747,8 +5825,11 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -5791,8 +5872,11 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -5829,8 +5913,11 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
@@ -5867,8 +5954,11 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -5915,8 +6005,11 @@
       <c r="R30" s="3">
         <v>37103</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
@@ -5959,8 +6052,11 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -5997,8 +6093,11 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -6045,8 +6144,11 @@
       <c r="R33" s="3">
         <v>37039</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -6083,8 +6185,11 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -6123,8 +6228,11 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -6161,8 +6269,11 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -6199,8 +6310,11 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -6237,8 +6351,11 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
@@ -6281,8 +6398,11 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -6325,8 +6445,11 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -6363,8 +6486,11 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -6411,8 +6537,11 @@
       <c r="R42" s="3">
         <v>37135</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
@@ -6459,8 +6588,11 @@
       <c r="R43" s="3">
         <v>37228</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
@@ -6497,8 +6629,11 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
@@ -6535,8 +6670,11 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -6573,8 +6711,11 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
@@ -6611,8 +6752,11 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>172</v>
       </c>
@@ -6655,8 +6799,11 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
@@ -6693,8 +6840,11 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
@@ -6727,8 +6877,11 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
@@ -6765,8 +6918,11 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>184</v>
       </c>
@@ -6813,8 +6969,11 @@
       <c r="R52" s="3">
         <v>37491</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
@@ -6857,8 +7016,11 @@
       <c r="R53" s="3">
         <v>37295</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>190</v>
       </c>
@@ -6895,8 +7057,11 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>193</v>
       </c>
@@ -6933,8 +7098,11 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -6975,8 +7143,11 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -7013,8 +7184,11 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>203</v>
       </c>
@@ -7051,8 +7225,11 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -7093,8 +7270,11 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>208</v>
       </c>
@@ -7127,8 +7307,11 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -7161,8 +7344,11 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>215</v>
       </c>
@@ -7203,8 +7389,11 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -7247,8 +7436,11 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -7293,8 +7485,11 @@
       <c r="R64" s="3">
         <v>37028</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
@@ -7331,8 +7526,11 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
@@ -7379,8 +7577,11 @@
       <c r="R66" s="3">
         <v>36930</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -7425,8 +7626,11 @@
       <c r="R67" s="3">
         <v>37054</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -7467,8 +7671,11 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>237</v>
       </c>
@@ -7515,8 +7722,11 @@
       <c r="R69" s="3">
         <v>37439</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>242</v>
       </c>
@@ -7557,8 +7767,11 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>245</v>
       </c>
@@ -7605,8 +7818,11 @@
       <c r="R71" s="3">
         <v>37294</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>248</v>
       </c>
@@ -7649,8 +7865,11 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>251</v>
       </c>
@@ -7687,8 +7906,11 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>254</v>
       </c>
@@ -7725,8 +7947,11 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>256</v>
       </c>
@@ -7769,8 +7994,11 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>259</v>
       </c>
@@ -7807,8 +8035,11 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -7855,8 +8086,11 @@
       <c r="R77" s="3">
         <v>37854</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>265</v>
       </c>
@@ -7893,8 +8127,11 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>268</v>
       </c>
@@ -7931,8 +8168,11 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>271</v>
       </c>
@@ -7969,8 +8209,11 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>275</v>
       </c>
@@ -8013,8 +8256,11 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>277</v>
       </c>
@@ -8059,8 +8305,11 @@
       <c r="R82" s="3">
         <v>37686</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>280</v>
       </c>
@@ -8097,8 +8346,11 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>283</v>
       </c>
@@ -8135,8 +8387,11 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>286</v>
       </c>
@@ -8183,8 +8438,11 @@
       <c r="R85" s="3">
         <v>37693</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -8221,8 +8479,11 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>292</v>
       </c>
@@ -8259,8 +8520,11 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>295</v>
       </c>
@@ -8307,8 +8571,11 @@
       <c r="R88" s="3">
         <v>37923</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>297</v>
       </c>
@@ -8345,8 +8612,11 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>300</v>
       </c>
@@ -8393,8 +8663,11 @@
       <c r="R90" s="3">
         <v>37959</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
@@ -8437,8 +8710,11 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>306</v>
       </c>
@@ -8483,8 +8759,11 @@
       <c r="R92" s="3">
         <v>37958</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>308</v>
       </c>
@@ -8521,8 +8800,11 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -8559,8 +8841,11 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>315</v>
       </c>
@@ -8605,8 +8890,11 @@
       <c r="R95" s="3">
         <v>38444</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>319</v>
       </c>
@@ -8643,8 +8931,11 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>322</v>
       </c>
@@ -8691,8 +8982,11 @@
       <c r="R97" s="3">
         <v>38259</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>326</v>
       </c>
@@ -8735,8 +9029,11 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>329</v>
       </c>
@@ -8773,8 +9070,11 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>332</v>
       </c>
@@ -8819,8 +9119,11 @@
       <c r="R100" s="3">
         <v>38017</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>335</v>
       </c>
@@ -8865,8 +9168,11 @@
       <c r="R101" s="3">
         <v>38017</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>338</v>
       </c>
@@ -8907,8 +9213,11 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>341</v>
       </c>
@@ -8949,8 +9258,11 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
@@ -8993,8 +9305,11 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
@@ -9037,8 +9352,11 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>350</v>
       </c>
@@ -9075,8 +9393,11 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>352</v>
       </c>
@@ -9119,8 +9440,11 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>355</v>
       </c>
@@ -9157,8 +9481,11 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>358</v>
       </c>
@@ -9201,8 +9528,11 @@
       <c r="R109" s="3">
         <v>38179</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>361</v>
       </c>
@@ -9245,8 +9575,11 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>363</v>
       </c>
@@ -9283,8 +9616,11 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>365</v>
       </c>
@@ -9319,8 +9655,11 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>368</v>
       </c>
@@ -9367,8 +9706,11 @@
       <c r="R113" s="3">
         <v>38077</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>372</v>
       </c>
@@ -9415,8 +9757,11 @@
       <c r="R114" s="3">
         <v>38275</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>374</v>
       </c>
@@ -9455,8 +9800,11 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>377</v>
       </c>
@@ -9493,8 +9841,11 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>380</v>
       </c>
@@ -9539,8 +9890,11 @@
       <c r="R117" s="3">
         <v>38288</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>382</v>
       </c>
@@ -9577,8 +9931,11 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
@@ -9613,8 +9970,11 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>387</v>
       </c>
@@ -9661,8 +10021,11 @@
       <c r="R120" s="3">
         <v>38129</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>390</v>
       </c>
@@ -9699,8 +10062,11 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>393</v>
       </c>
@@ -9737,8 +10103,11 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>396</v>
       </c>
@@ -9781,8 +10150,11 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>397</v>
       </c>
@@ -9825,8 +10197,11 @@
       <c r="R124" s="3">
         <v>38503</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>400</v>
       </c>
@@ -9871,8 +10246,11 @@
       <c r="R125" s="3">
         <v>39143</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>404</v>
       </c>
@@ -9909,8 +10287,11 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>407</v>
       </c>
@@ -9953,8 +10334,11 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
@@ -9993,8 +10377,11 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>411</v>
       </c>
@@ -10037,8 +10424,11 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>414</v>
       </c>
@@ -10075,8 +10465,11 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>417</v>
       </c>
@@ -10121,8 +10514,11 @@
       <c r="R131" s="3">
         <v>38259</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>420</v>
       </c>
@@ -10165,8 +10561,11 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>423</v>
       </c>
@@ -10211,8 +10610,11 @@
         <v>426</v>
       </c>
       <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>427</v>
       </c>
@@ -10251,8 +10653,11 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>430</v>
       </c>
@@ -10299,8 +10704,11 @@
       <c r="R135" s="3">
         <v>38162</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>433</v>
       </c>
@@ -10343,8 +10751,11 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>436</v>
       </c>
@@ -10381,8 +10792,11 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>439</v>
       </c>
@@ -10423,8 +10837,11 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>442</v>
       </c>
@@ -10471,8 +10888,11 @@
       <c r="R139" s="3">
         <v>39982</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>445</v>
       </c>
@@ -10511,8 +10931,11 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>448</v>
       </c>
@@ -10555,8 +10978,11 @@
         <v>426</v>
       </c>
       <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>451</v>
       </c>
@@ -10603,8 +11029,11 @@
       <c r="R142" s="3">
         <v>38548</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>454</v>
       </c>
@@ -10641,8 +11070,11 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>456</v>
       </c>
@@ -10677,8 +11109,11 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>459</v>
       </c>
@@ -10721,8 +11156,11 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>462</v>
       </c>
@@ -10763,8 +11201,11 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>465</v>
       </c>
@@ -10807,8 +11248,11 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>467</v>
       </c>
@@ -10855,8 +11299,11 @@
       <c r="R148" s="3">
         <v>39020</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>470</v>
       </c>
@@ -10901,8 +11348,11 @@
       <c r="R149" s="3">
         <v>38503</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>471</v>
       </c>
@@ -10945,8 +11395,11 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>473</v>
       </c>
@@ -10989,8 +11442,11 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>475</v>
       </c>
@@ -11031,8 +11487,11 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>477</v>
       </c>
@@ -11075,8 +11534,11 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>480</v>
       </c>
@@ -11113,8 +11575,11 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>483</v>
       </c>
@@ -11157,8 +11622,11 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -11203,8 +11671,11 @@
       <c r="R156" s="3">
         <v>38929</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>488</v>
       </c>
@@ -11247,8 +11718,11 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>491</v>
       </c>
@@ -11285,8 +11759,11 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>494</v>
       </c>
@@ -11323,8 +11800,11 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>496</v>
       </c>
@@ -11371,8 +11851,11 @@
       <c r="R160" s="3">
         <v>38917</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>499</v>
       </c>
@@ -11415,8 +11898,11 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>500</v>
       </c>
@@ -11467,8 +11953,11 @@
       <c r="R162" s="3">
         <v>38919</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>503</v>
       </c>
@@ -11505,8 +11994,11 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>506</v>
       </c>
@@ -11549,8 +12041,11 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -11597,8 +12092,11 @@
       <c r="R165" s="3">
         <v>38929</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>511</v>
       </c>
@@ -11641,8 +12139,11 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>514</v>
       </c>
@@ -11685,8 +12186,11 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>517</v>
       </c>
@@ -11731,8 +12235,11 @@
       <c r="R168" s="3">
         <v>38759</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>521</v>
       </c>
@@ -11779,8 +12286,11 @@
       <c r="R169" s="3">
         <v>38946</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>524</v>
       </c>
@@ -11825,8 +12335,11 @@
       <c r="R170" s="3">
         <v>39102</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>526</v>
       </c>
@@ -11863,8 +12376,11 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>529</v>
       </c>
@@ -11907,8 +12423,11 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>532</v>
       </c>
@@ -11949,8 +12468,11 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -11997,8 +12519,11 @@
       <c r="R174" s="3">
         <v>39297</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -12035,8 +12560,11 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -12071,8 +12599,11 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -12109,8 +12640,11 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -12157,8 +12691,11 @@
       <c r="R178" s="3">
         <v>38801</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>550</v>
       </c>
@@ -12205,8 +12742,11 @@
       <c r="R179" s="3">
         <v>38806</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -12253,8 +12793,11 @@
       <c r="R180" s="3">
         <v>39005</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -12301,8 +12844,11 @@
       <c r="R181" s="3">
         <v>39502</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -12349,8 +12895,11 @@
       <c r="R182" s="3">
         <v>39510</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>560</v>
       </c>
@@ -12395,8 +12944,11 @@
       <c r="R183" s="3">
         <v>39149</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>562</v>
       </c>
@@ -12439,8 +12991,11 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>565</v>
       </c>
@@ -12487,8 +13042,11 @@
       <c r="R185" s="3">
         <v>39156</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>567</v>
       </c>
@@ -12533,8 +13091,11 @@
       <c r="R186" s="3">
         <v>38890</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>569</v>
       </c>
@@ -12577,8 +13138,11 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>572</v>
       </c>
@@ -12615,8 +13179,11 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>574</v>
       </c>
@@ -12663,8 +13230,11 @@
       <c r="R189" s="3">
         <v>39541</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>576</v>
       </c>
@@ -12707,8 +13277,11 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>579</v>
       </c>
@@ -12755,8 +13328,11 @@
       <c r="R191" s="3">
         <v>39328</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>583</v>
       </c>
@@ -12799,8 +13375,11 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>586</v>
       </c>
@@ -12847,8 +13426,11 @@
       <c r="R193" s="3">
         <v>39418</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>588</v>
       </c>
@@ -12891,8 +13473,11 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>591</v>
       </c>
@@ -12941,8 +13526,11 @@
       <c r="R195" s="3">
         <v>39493</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>593</v>
       </c>
@@ -12985,8 +13573,11 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>596</v>
       </c>
@@ -13033,8 +13624,11 @@
       <c r="R197" s="3">
         <v>39326</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>599</v>
       </c>
@@ -13081,8 +13675,11 @@
       <c r="R198" s="3">
         <v>39009</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>600</v>
       </c>
@@ -13125,8 +13722,11 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>602</v>
       </c>
@@ -13169,8 +13769,11 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>603</v>
       </c>
@@ -13209,8 +13812,11 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>606</v>
       </c>
@@ -13255,8 +13861,11 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>609</v>
       </c>
@@ -13299,8 +13908,11 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>610</v>
       </c>
@@ -13339,8 +13951,11 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
@@ -13387,8 +14002,11 @@
       <c r="R205" s="3">
         <v>39464</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>615</v>
       </c>
@@ -13431,8 +14049,11 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>618</v>
       </c>
@@ -13475,8 +14096,11 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
@@ -13523,8 +14147,11 @@
       <c r="R208" s="3">
         <v>39372</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>623</v>
       </c>
@@ -13563,8 +14190,11 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>626</v>
       </c>
@@ -13603,8 +14233,11 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>629</v>
       </c>
@@ -13651,8 +14284,11 @@
       <c r="R211" s="3">
         <v>40229</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>632</v>
       </c>
@@ -13695,8 +14331,11 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>635</v>
       </c>
@@ -13743,8 +14382,11 @@
       <c r="R213" s="3">
         <v>39501</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>638</v>
       </c>
@@ -13791,8 +14433,11 @@
       <c r="R214" s="3">
         <v>39629</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>641</v>
       </c>
@@ -13839,8 +14484,11 @@
       <c r="R215" s="3">
         <v>39629</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>643</v>
       </c>
@@ -13883,8 +14531,11 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="S216" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>645</v>
       </c>
@@ -13929,8 +14580,11 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="S217" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>648</v>
       </c>
@@ -13977,8 +14631,11 @@
       <c r="R218" s="3">
         <v>39478</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="S218" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>651</v>
       </c>
@@ -14021,8 +14678,11 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="S219" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>652</v>
       </c>
@@ -14069,8 +14729,11 @@
       <c r="R220" s="3">
         <v>39247</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="S220" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>655</v>
       </c>
@@ -14113,8 +14776,11 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="S221" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>658</v>
       </c>
@@ -14157,8 +14823,11 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="S222" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>659</v>
       </c>
@@ -14201,8 +14870,11 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="S223" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>662</v>
       </c>
@@ -14245,8 +14917,11 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>666</v>
       </c>
@@ -14285,8 +14960,11 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>668</v>
       </c>
@@ -14329,8 +15007,11 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>671</v>
       </c>
@@ -14373,8 +15054,11 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="S227" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>674</v>
       </c>
@@ -14413,8 +15097,11 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="S228" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>676</v>
       </c>
@@ -14455,8 +15142,11 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="S229" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>677</v>
       </c>
@@ -14499,8 +15189,11 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="S230" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>680</v>
       </c>
@@ -14543,8 +15236,11 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>683</v>
       </c>
@@ -14587,8 +15283,11 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="S232" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>685</v>
       </c>
@@ -14629,8 +15328,11 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="S233" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>688</v>
       </c>
@@ -14671,8 +15373,11 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>691</v>
       </c>
@@ -14715,8 +15420,11 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="S235" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>694</v>
       </c>
@@ -14755,8 +15463,11 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>698</v>
       </c>
@@ -14799,8 +15510,11 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
-    </row>
-    <row r="238" spans="1:18">
+      <c r="S237" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>701</v>
       </c>
@@ -14841,8 +15555,11 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
-    </row>
-    <row r="239" spans="1:18">
+      <c r="S238" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>704</v>
       </c>
@@ -14883,8 +15600,11 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>705</v>
       </c>
@@ -14927,8 +15647,11 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
-    </row>
-    <row r="241" spans="1:18">
+      <c r="S240" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>706</v>
       </c>
@@ -14971,8 +15694,11 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>709</v>
       </c>
@@ -15019,8 +15745,11 @@
       <c r="R242" s="3">
         <v>39528</v>
       </c>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="S242" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>712</v>
       </c>
@@ -15063,8 +15792,11 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>714</v>
       </c>
@@ -15103,8 +15835,11 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-    </row>
-    <row r="245" spans="1:18">
+      <c r="S244" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>715</v>
       </c>
@@ -15147,8 +15882,11 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>717</v>
       </c>
@@ -15193,8 +15931,11 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>720</v>
       </c>
@@ -15231,8 +15972,11 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-    </row>
-    <row r="248" spans="1:18">
+      <c r="S247" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>723</v>
       </c>
@@ -15275,8 +16019,11 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>726</v>
       </c>
@@ -15319,8 +16066,11 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
-    </row>
-    <row r="250" spans="1:18">
+      <c r="S249" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>729</v>
       </c>
@@ -15357,8 +16107,11 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>731</v>
       </c>
@@ -15401,8 +16154,11 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
-    </row>
-    <row r="252" spans="1:18">
+      <c r="S251" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>733</v>
       </c>
@@ -15445,8 +16201,11 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
-    </row>
-    <row r="253" spans="1:18">
+      <c r="S252" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>735</v>
       </c>
@@ -15489,8 +16248,11 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>738</v>
       </c>
@@ -15533,8 +16295,11 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>740</v>
       </c>
@@ -15577,8 +16342,11 @@
         <v>745</v>
       </c>
       <c r="R255" s="1"/>
-    </row>
-    <row r="256" spans="1:18">
+      <c r="S255" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>746</v>
       </c>
@@ -15621,8 +16389,11 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
-    </row>
-    <row r="257" spans="1:18">
+      <c r="S256" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>748</v>
       </c>
@@ -15665,8 +16436,11 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
-    </row>
-    <row r="258" spans="1:18">
+      <c r="S257" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>750</v>
       </c>
@@ -15705,8 +16479,11 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
-    </row>
-    <row r="259" spans="1:18">
+      <c r="S258" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>751</v>
       </c>
@@ -15749,8 +16526,11 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
-    </row>
-    <row r="260" spans="1:18">
+      <c r="S259" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>755</v>
       </c>
@@ -15795,8 +16575,11 @@
       <c r="R260" s="3">
         <v>38998</v>
       </c>
-    </row>
-    <row r="261" spans="1:18">
+      <c r="S260" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>759</v>
       </c>
@@ -15839,8 +16622,11 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
-    </row>
-    <row r="262" spans="1:18">
+      <c r="S261" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>762</v>
       </c>
@@ -15883,8 +16669,11 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
-    </row>
-    <row r="263" spans="1:18">
+      <c r="S262" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>764</v>
       </c>
@@ -15927,8 +16716,11 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
-    </row>
-    <row r="264" spans="1:18">
+      <c r="S263" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>766</v>
       </c>
@@ -15971,8 +16763,11 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
-    </row>
-    <row r="265" spans="1:18">
+      <c r="S264" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>768</v>
       </c>
@@ -16015,8 +16810,11 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
-    </row>
-    <row r="266" spans="1:18">
+      <c r="S265" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>770</v>
       </c>
@@ -16059,8 +16857,11 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
-    </row>
-    <row r="267" spans="1:18">
+      <c r="S266" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>772</v>
       </c>
@@ -16103,8 +16904,11 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
-    </row>
-    <row r="268" spans="1:18">
+      <c r="S267" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>774</v>
       </c>
@@ -16147,8 +16951,11 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
-    </row>
-    <row r="269" spans="1:18">
+      <c r="S268" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>776</v>
       </c>
@@ -16191,8 +16998,11 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
-    </row>
-    <row r="270" spans="1:18">
+      <c r="S269" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>779</v>
       </c>
@@ -16235,8 +17045,11 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
-    </row>
-    <row r="271" spans="1:18">
+      <c r="S270" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>781</v>
       </c>
@@ -16279,8 +17092,11 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
-    </row>
-    <row r="272" spans="1:18">
+      <c r="S271" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>784</v>
       </c>
@@ -16321,8 +17137,11 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
-    </row>
-    <row r="273" spans="1:18">
+      <c r="S272" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>786</v>
       </c>
@@ -16363,8 +17182,11 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
-    </row>
-    <row r="274" spans="1:18">
+      <c r="S273" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>787</v>
       </c>
@@ -16405,8 +17227,11 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
-    </row>
-    <row r="275" spans="1:18">
+      <c r="S274" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>790</v>
       </c>
@@ -16447,8 +17272,11 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
-    </row>
-    <row r="276" spans="1:18">
+      <c r="S275" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>793</v>
       </c>
@@ -16489,8 +17317,11 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
-    </row>
-    <row r="277" spans="1:18">
+      <c r="S276" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>795</v>
       </c>
@@ -16531,8 +17362,11 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
-    </row>
-    <row r="278" spans="1:18">
+      <c r="S277" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>797</v>
       </c>
@@ -16575,8 +17409,11 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
-    </row>
-    <row r="279" spans="1:18">
+      <c r="S278" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>799</v>
       </c>
@@ -16615,8 +17452,11 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
-    </row>
-    <row r="280" spans="1:18">
+      <c r="S279" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>800</v>
       </c>
@@ -16659,8 +17499,11 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
-    </row>
-    <row r="281" spans="1:18">
+      <c r="S280" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>803</v>
       </c>
@@ -16707,8 +17550,11 @@
       <c r="R281" s="3">
         <v>39865</v>
       </c>
-    </row>
-    <row r="282" spans="1:18">
+      <c r="S281" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>807</v>
       </c>
@@ -16751,8 +17597,11 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
-    </row>
-    <row r="283" spans="1:18">
+      <c r="S282" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>809</v>
       </c>
@@ -16795,8 +17644,11 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
-    </row>
-    <row r="284" spans="1:18">
+      <c r="S283" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>811</v>
       </c>
@@ -16843,8 +17695,11 @@
       <c r="R284" s="3">
         <v>40157</v>
       </c>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>814</v>
       </c>
@@ -16887,8 +17742,11 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>817</v>
       </c>
@@ -16935,8 +17793,11 @@
       <c r="R286" s="3">
         <v>39877</v>
       </c>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>820</v>
       </c>
@@ -16977,8 +17838,11 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>822</v>
       </c>
@@ -17021,8 +17885,11 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
-    </row>
-    <row r="289" spans="1:18">
+      <c r="S288" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>824</v>
       </c>
@@ -17065,8 +17932,11 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-    </row>
-    <row r="290" spans="1:18">
+      <c r="S289" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>826</v>
       </c>
@@ -17109,8 +17979,11 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
-    </row>
-    <row r="291" spans="1:18">
+      <c r="S290" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>829</v>
       </c>
@@ -17157,8 +18030,11 @@
       <c r="R291" s="3">
         <v>40229</v>
       </c>
-    </row>
-    <row r="292" spans="1:18">
+      <c r="S291" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>832</v>
       </c>
@@ -17205,8 +18081,11 @@
       <c r="R292" s="3">
         <v>40233</v>
       </c>
-    </row>
-    <row r="293" spans="1:18">
+      <c r="S292" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>834</v>
       </c>
@@ -17255,8 +18134,11 @@
       <c r="R293" s="3">
         <v>39898</v>
       </c>
-    </row>
-    <row r="294" spans="1:18">
+      <c r="S293" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>838</v>
       </c>
@@ -17299,8 +18181,11 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
-    </row>
-    <row r="295" spans="1:18">
+      <c r="S294" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>840</v>
       </c>
@@ -17343,8 +18228,11 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
-    </row>
-    <row r="296" spans="1:18">
+      <c r="S295" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>843</v>
       </c>
@@ -17391,8 +18279,11 @@
       <c r="R296" s="3">
         <v>40062</v>
       </c>
-    </row>
-    <row r="297" spans="1:18">
+      <c r="S296" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>845</v>
       </c>
@@ -17439,8 +18330,11 @@
       <c r="R297" s="3">
         <v>40253</v>
       </c>
-    </row>
-    <row r="298" spans="1:18">
+      <c r="S297" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>847</v>
       </c>
@@ -17487,8 +18381,11 @@
       <c r="R298" s="3">
         <v>39974</v>
       </c>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="S298" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>849</v>
       </c>
@@ -17535,8 +18432,11 @@
       <c r="R299" s="3">
         <v>40310</v>
       </c>
-    </row>
-    <row r="300" spans="1:18">
+      <c r="S299" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>851</v>
       </c>
@@ -17579,8 +18479,11 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
-    </row>
-    <row r="301" spans="1:18">
+      <c r="S300" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>853</v>
       </c>
@@ -17623,8 +18526,11 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-    </row>
-    <row r="302" spans="1:18">
+      <c r="S301" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>855</v>
       </c>
@@ -17667,8 +18573,11 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-    </row>
-    <row r="303" spans="1:18">
+      <c r="S302" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>858</v>
       </c>
@@ -17711,8 +18620,11 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
-    </row>
-    <row r="304" spans="1:18">
+      <c r="S303" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>861</v>
       </c>
@@ -17755,8 +18667,11 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
-    </row>
-    <row r="305" spans="1:18">
+      <c r="S304" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>864</v>
       </c>
@@ -17799,8 +18714,11 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
-    </row>
-    <row r="306" spans="1:18">
+      <c r="S305" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>865</v>
       </c>
@@ -17847,8 +18765,11 @@
       <c r="R306" s="3">
         <v>40452</v>
       </c>
-    </row>
-    <row r="307" spans="1:18">
+      <c r="S306" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>867</v>
       </c>
@@ -17889,8 +18810,11 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
-    </row>
-    <row r="308" spans="1:18">
+      <c r="S307" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>869</v>
       </c>
@@ -17933,8 +18857,11 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
-    </row>
-    <row r="309" spans="1:18">
+      <c r="S308" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>872</v>
       </c>
@@ -17977,8 +18904,11 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
-    </row>
-    <row r="310" spans="1:18">
+      <c r="S309" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>874</v>
       </c>
@@ -18019,8 +18949,11 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
-    </row>
-    <row r="311" spans="1:18">
+      <c r="S310" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>876</v>
       </c>
@@ -18063,8 +18996,11 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
-    </row>
-    <row r="312" spans="1:18">
+      <c r="S311" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>877</v>
       </c>
@@ -18107,8 +19043,11 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
-    </row>
-    <row r="313" spans="1:18">
+      <c r="S312" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>880</v>
       </c>
@@ -18155,8 +19094,11 @@
       <c r="R313" s="3">
         <v>40726</v>
       </c>
-    </row>
-    <row r="314" spans="1:18">
+      <c r="S313" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>883</v>
       </c>
@@ -18197,8 +19139,11 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
-    </row>
-    <row r="315" spans="1:18">
+      <c r="S314" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>885</v>
       </c>
@@ -18245,8 +19190,11 @@
       <c r="R315" s="3">
         <v>41308</v>
       </c>
-    </row>
-    <row r="316" spans="1:18">
+      <c r="S315" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>888</v>
       </c>
@@ -18287,8 +19235,11 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
-    </row>
-    <row r="317" spans="1:18">
+      <c r="S316" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>891</v>
       </c>
@@ -18335,8 +19286,11 @@
       <c r="R317" s="3">
         <v>40645</v>
       </c>
-    </row>
-    <row r="318" spans="1:18">
+      <c r="S317" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>894</v>
       </c>
@@ -18375,8 +19329,11 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
-    </row>
-    <row r="319" spans="1:18">
+      <c r="S318" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>895</v>
       </c>
@@ -18423,8 +19380,11 @@
       <c r="R319" s="3">
         <v>40491</v>
       </c>
-    </row>
-    <row r="320" spans="1:18">
+      <c r="S319" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>898</v>
       </c>
@@ -18467,8 +19427,11 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
-    </row>
-    <row r="321" spans="1:18">
+      <c r="S320" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>901</v>
       </c>
@@ -18511,8 +19474,11 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
-    </row>
-    <row r="322" spans="1:18">
+      <c r="S321" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>905</v>
       </c>
@@ -18555,8 +19521,11 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
-    </row>
-    <row r="323" spans="1:18">
+      <c r="S322" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>907</v>
       </c>
@@ -18597,8 +19566,11 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
-    </row>
-    <row r="324" spans="1:18">
+      <c r="S323" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>910</v>
       </c>
@@ -18639,8 +19611,11 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-    </row>
-    <row r="325" spans="1:18">
+      <c r="S324" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>912</v>
       </c>
@@ -18681,8 +19656,11 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-    </row>
-    <row r="326" spans="1:18">
+      <c r="S325" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>914</v>
       </c>
@@ -18723,8 +19701,11 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-    </row>
-    <row r="327" spans="1:18">
+      <c r="S326" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>916</v>
       </c>
@@ -18767,8 +19748,11 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
-    </row>
-    <row r="328" spans="1:18">
+      <c r="S327" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>919</v>
       </c>
@@ -18811,8 +19795,11 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
-    </row>
-    <row r="329" spans="1:18">
+      <c r="S328" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>922</v>
       </c>
@@ -18859,8 +19846,11 @@
       <c r="R329" s="3">
         <v>41011</v>
       </c>
-    </row>
-    <row r="330" spans="1:18">
+      <c r="S329" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>925</v>
       </c>
@@ -18895,8 +19885,11 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
-    </row>
-    <row r="331" spans="1:18">
+      <c r="S330" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>928</v>
       </c>
@@ -18939,8 +19932,11 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
-    </row>
-    <row r="332" spans="1:18">
+      <c r="S331" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>929</v>
       </c>
@@ -18983,8 +19979,11 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-    </row>
-    <row r="333" spans="1:18">
+      <c r="S332" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>932</v>
       </c>
@@ -19031,8 +20030,11 @@
       <c r="R333" s="3">
         <v>40687</v>
       </c>
-    </row>
-    <row r="334" spans="1:18">
+      <c r="S333" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>936</v>
       </c>
@@ -19075,8 +20077,11 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-    </row>
-    <row r="335" spans="1:18">
+      <c r="S334" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>939</v>
       </c>
@@ -19119,8 +20124,11 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
-    </row>
-    <row r="336" spans="1:18">
+      <c r="S335" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>942</v>
       </c>
@@ -19163,8 +20171,11 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
-    </row>
-    <row r="337" spans="1:18">
+      <c r="S336" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>945</v>
       </c>
@@ -19207,8 +20218,11 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-    </row>
-    <row r="338" spans="1:18">
+      <c r="S337" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>946</v>
       </c>
@@ -19251,8 +20265,11 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
-    </row>
-    <row r="339" spans="1:18">
+      <c r="S338" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>948</v>
       </c>
@@ -19275,8 +20292,11 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-    </row>
-    <row r="340" spans="1:18">
+      <c r="S339" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>949</v>
       </c>
@@ -19319,8 +20339,11 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-    </row>
-    <row r="341" spans="1:18">
+      <c r="S340" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>952</v>
       </c>
@@ -19363,8 +20386,11 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
-    </row>
-    <row r="342" spans="1:18">
+      <c r="S341" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>955</v>
       </c>
@@ -19407,8 +20433,11 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-    </row>
-    <row r="343" spans="1:18">
+      <c r="S342" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>958</v>
       </c>
@@ -19451,8 +20480,11 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
-    </row>
-    <row r="344" spans="1:18">
+      <c r="S343" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>960</v>
       </c>
@@ -19495,8 +20527,11 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
-    </row>
-    <row r="345" spans="1:18">
+      <c r="S344" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>963</v>
       </c>
@@ -19533,8 +20568,11 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
-    </row>
-    <row r="346" spans="1:18">
+      <c r="S345" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>966</v>
       </c>
@@ -19581,8 +20619,11 @@
       <c r="R346" s="3">
         <v>41151</v>
       </c>
-    </row>
-    <row r="347" spans="1:18">
+      <c r="S346" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>968</v>
       </c>
@@ -19629,8 +20670,11 @@
       <c r="R347" s="3">
         <v>41181</v>
       </c>
-    </row>
-    <row r="348" spans="1:18">
+      <c r="S347" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>970</v>
       </c>
@@ -19673,8 +20717,11 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-    </row>
-    <row r="349" spans="1:18">
+      <c r="S348" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>973</v>
       </c>
@@ -19717,8 +20764,11 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-    </row>
-    <row r="350" spans="1:18">
+      <c r="S349" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>975</v>
       </c>
@@ -19741,8 +20791,11 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
-    </row>
-    <row r="351" spans="1:18">
+      <c r="S350" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>976</v>
       </c>
@@ -19779,8 +20832,11 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
-    </row>
-    <row r="352" spans="1:18">
+      <c r="S351" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>979</v>
       </c>
@@ -19823,8 +20879,11 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-    </row>
-    <row r="353" spans="1:18">
+      <c r="S352" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>983</v>
       </c>
@@ -19859,8 +20918,11 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-    </row>
-    <row r="354" spans="1:18">
+      <c r="S353" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>984</v>
       </c>
@@ -19901,8 +20963,11 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-    </row>
-    <row r="355" spans="1:18">
+      <c r="S354" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>986</v>
       </c>
@@ -19939,8 +21004,11 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-    </row>
-    <row r="356" spans="1:18">
+      <c r="S355" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>988</v>
       </c>
@@ -19983,8 +21051,11 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
-    </row>
-    <row r="357" spans="1:18">
+      <c r="S356" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>989</v>
       </c>
@@ -20025,8 +21096,11 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-    </row>
-    <row r="358" spans="1:18">
+      <c r="S357" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>991</v>
       </c>
@@ -20069,8 +21143,11 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-    </row>
-    <row r="359" spans="1:18">
+      <c r="S358" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>993</v>
       </c>
@@ -20113,8 +21190,11 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-    </row>
-    <row r="360" spans="1:18">
+      <c r="S359" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>997</v>
       </c>
@@ -20157,8 +21237,11 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
-    </row>
-    <row r="361" spans="1:18">
+      <c r="S360" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1000</v>
       </c>
@@ -20199,8 +21282,11 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-    </row>
-    <row r="362" spans="1:18">
+      <c r="S361" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>1003</v>
       </c>
@@ -20237,8 +21323,11 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
-    </row>
-    <row r="363" spans="1:18">
+      <c r="S362" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1005</v>
       </c>
@@ -20281,8 +21370,11 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
-    </row>
-    <row r="364" spans="1:18">
+      <c r="S363" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>1008</v>
       </c>
@@ -20325,8 +21417,11 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-    </row>
-    <row r="365" spans="1:18">
+      <c r="S364" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1011</v>
       </c>
@@ -20369,8 +21464,11 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-    </row>
-    <row r="366" spans="1:18">
+      <c r="S365" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1013</v>
       </c>
@@ -20413,8 +21511,11 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-    </row>
-    <row r="367" spans="1:18">
+      <c r="S366" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1017</v>
       </c>
@@ -20457,8 +21558,11 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-    </row>
-    <row r="368" spans="1:18">
+      <c r="S367" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>1020</v>
       </c>
@@ -20495,8 +21599,11 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-    </row>
-    <row r="369" spans="1:18">
+      <c r="S368" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1023</v>
       </c>
@@ -20539,8 +21646,11 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-    </row>
-    <row r="370" spans="1:18">
+      <c r="S369" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1026</v>
       </c>
@@ -20583,8 +21693,11 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
-    </row>
-    <row r="371" spans="1:18">
+      <c r="S370" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1030</v>
       </c>
@@ -20627,8 +21740,11 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
-    </row>
-    <row r="372" spans="1:18">
+      <c r="S371" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20671,8 +21787,11 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
-    </row>
-    <row r="373" spans="1:18">
+      <c r="S372" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20715,8 +21834,11 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
-    </row>
-    <row r="374" spans="1:18">
+      <c r="S373" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1037</v>
       </c>
@@ -20759,8 +21881,11 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-    </row>
-    <row r="375" spans="1:18">
+      <c r="S374" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>1040</v>
       </c>
@@ -20803,8 +21928,11 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
-    </row>
-    <row r="376" spans="1:18">
+      <c r="S375" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1043</v>
       </c>
@@ -20847,8 +21975,11 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
-    </row>
-    <row r="377" spans="1:18">
+      <c r="S376" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>1045</v>
       </c>
@@ -20891,8 +22022,11 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
-    </row>
-    <row r="378" spans="1:18">
+      <c r="S377" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1047</v>
       </c>
@@ -20935,8 +22069,11 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
-    </row>
-    <row r="379" spans="1:18">
+      <c r="S378" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1050</v>
       </c>
@@ -20981,8 +22118,11 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
-    </row>
-    <row r="380" spans="1:18">
+      <c r="S379" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>1052</v>
       </c>
@@ -21025,8 +22165,11 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
-    </row>
-    <row r="381" spans="1:18">
+      <c r="S380" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1055</v>
       </c>
@@ -21069,8 +22212,11 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
-    </row>
-    <row r="382" spans="1:18">
+      <c r="S381" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>1057</v>
       </c>
@@ -21113,8 +22259,11 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
-    </row>
-    <row r="383" spans="1:18">
+      <c r="S382" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1059</v>
       </c>
@@ -21157,8 +22306,11 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
-    </row>
-    <row r="384" spans="1:18">
+      <c r="S383" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>1062</v>
       </c>
@@ -21201,8 +22353,11 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
-    </row>
-    <row r="385" spans="1:18">
+      <c r="S384" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1064</v>
       </c>
@@ -21245,8 +22400,11 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
-    </row>
-    <row r="386" spans="1:18">
+      <c r="S385" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>1067</v>
       </c>
@@ -21289,8 +22447,11 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
-    </row>
-    <row r="387" spans="1:18">
+      <c r="S386" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1068</v>
       </c>
@@ -21333,8 +22494,11 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
-    </row>
-    <row r="388" spans="1:18">
+      <c r="S387" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1071</v>
       </c>
@@ -21377,8 +22541,11 @@
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
-    </row>
-    <row r="389" spans="1:18">
+      <c r="S388" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1072</v>
       </c>
@@ -21421,8 +22588,11 @@
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
-    </row>
-    <row r="390" spans="1:18">
+      <c r="S389" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1074</v>
       </c>
@@ -21463,8 +22633,11 @@
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
-    </row>
-    <row r="391" spans="1:18">
+      <c r="S390" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1077</v>
       </c>
@@ -21507,8 +22680,11 @@
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
-    </row>
-    <row r="392" spans="1:18">
+      <c r="S391" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1081</v>
       </c>
@@ -21551,8 +22727,11 @@
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
-    </row>
-    <row r="393" spans="1:18">
+      <c r="S392" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1084</v>
       </c>
@@ -21595,8 +22774,11 @@
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
-    </row>
-    <row r="394" spans="1:18">
+      <c r="S393" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1085</v>
       </c>
@@ -21639,8 +22821,11 @@
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
-    </row>
-    <row r="395" spans="1:18">
+      <c r="S394" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>1086</v>
       </c>
@@ -21683,8 +22868,11 @@
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
-    </row>
-    <row r="396" spans="1:18">
+      <c r="S395" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1088</v>
       </c>
@@ -21727,8 +22915,11 @@
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
-    </row>
-    <row r="397" spans="1:18">
+      <c r="S396" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1089</v>
       </c>
@@ -21771,8 +22962,11 @@
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
-    </row>
-    <row r="398" spans="1:18">
+      <c r="S397" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>1091</v>
       </c>
@@ -21815,8 +23009,11 @@
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
-    </row>
-    <row r="399" spans="1:18">
+      <c r="S398" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>1094</v>
       </c>
@@ -21859,8 +23056,11 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
-    </row>
-    <row r="400" spans="1:18">
+      <c r="S399" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>1096</v>
       </c>
@@ -21903,8 +23103,11 @@
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
-    </row>
-    <row r="401" spans="1:18">
+      <c r="S400" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>1099</v>
       </c>
@@ -21947,8 +23150,11 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
-    </row>
-    <row r="402" spans="1:18">
+      <c r="S401" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1102</v>
       </c>
@@ -21991,8 +23197,11 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-    </row>
-    <row r="403" spans="1:18">
+      <c r="S402" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>1105</v>
       </c>
@@ -22035,8 +23244,11 @@
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
-    </row>
-    <row r="404" spans="1:18">
+      <c r="S403" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>1108</v>
       </c>
@@ -22079,8 +23291,11 @@
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
-    </row>
-    <row r="405" spans="1:18">
+      <c r="S404" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1111</v>
       </c>
@@ -22123,8 +23338,11 @@
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
-    </row>
-    <row r="406" spans="1:18">
+      <c r="S405" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>1115</v>
       </c>
@@ -22167,8 +23385,11 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
-    </row>
-    <row r="407" spans="1:18">
+      <c r="S406" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22211,8 +23432,11 @@
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
-    </row>
-    <row r="408" spans="1:18">
+      <c r="S407" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1119</v>
       </c>
@@ -22255,8 +23479,11 @@
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
-    </row>
-    <row r="409" spans="1:18">
+      <c r="S408" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>1122</v>
       </c>
@@ -22301,8 +23528,11 @@
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
-    </row>
-    <row r="410" spans="1:18">
+      <c r="S409" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1124</v>
       </c>
@@ -22345,8 +23575,11 @@
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
-    </row>
-    <row r="411" spans="1:18">
+      <c r="S410" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>1126</v>
       </c>
@@ -22389,8 +23622,11 @@
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
-    </row>
-    <row r="412" spans="1:18">
+      <c r="S411" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1130</v>
       </c>
@@ -22433,8 +23669,11 @@
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
-    </row>
-    <row r="413" spans="1:18">
+      <c r="S412" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1132</v>
       </c>
@@ -22477,8 +23716,11 @@
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
-    </row>
-    <row r="414" spans="1:18">
+      <c r="S413" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>1134</v>
       </c>
@@ -22521,8 +23763,11 @@
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
-    </row>
-    <row r="415" spans="1:18">
+      <c r="S414" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1137</v>
       </c>
@@ -22565,8 +23810,11 @@
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
-    </row>
-    <row r="416" spans="1:18">
+      <c r="S415" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1139</v>
       </c>
@@ -22609,8 +23857,11 @@
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
-    </row>
-    <row r="417" spans="1:18">
+      <c r="S416" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1142</v>
       </c>
@@ -22653,8 +23904,11 @@
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
-    </row>
-    <row r="418" spans="1:18">
+      <c r="S417" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1145</v>
       </c>
@@ -22699,8 +23953,11 @@
       </c>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
-    </row>
-    <row r="419" spans="1:18">
+      <c r="S418" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1149</v>
       </c>
@@ -22743,8 +24000,11 @@
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
-    </row>
-    <row r="420" spans="1:18">
+      <c r="S419" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1151</v>
       </c>
@@ -22789,8 +24049,11 @@
       </c>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
-    </row>
-    <row r="421" spans="1:18">
+      <c r="S420" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1154</v>
       </c>
@@ -22835,8 +24098,11 @@
       </c>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
-    </row>
-    <row r="422" spans="1:18">
+      <c r="S421" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1156</v>
       </c>
@@ -22879,8 +24145,11 @@
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
-    </row>
-    <row r="423" spans="1:18">
+      <c r="S422" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1159</v>
       </c>
@@ -22925,8 +24194,11 @@
       </c>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
-    </row>
-    <row r="424" spans="1:18">
+      <c r="S423" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1160</v>
       </c>
@@ -22969,8 +24241,11 @@
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
-    </row>
-    <row r="425" spans="1:18">
+      <c r="S424" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1161</v>
       </c>
@@ -23013,8 +24288,11 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
-    </row>
-    <row r="426" spans="1:18">
+      <c r="S425" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1162</v>
       </c>
@@ -23059,8 +24337,11 @@
       </c>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
-    </row>
-    <row r="427" spans="1:18">
+      <c r="S426" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1165</v>
       </c>
@@ -23103,8 +24384,11 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
-    </row>
-    <row r="428" spans="1:18">
+      <c r="S427" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1168</v>
       </c>
@@ -23147,8 +24431,11 @@
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
-    </row>
-    <row r="429" spans="1:18">
+      <c r="S428" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1169</v>
       </c>
@@ -23191,8 +24478,11 @@
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
-    </row>
-    <row r="430" spans="1:18">
+      <c r="S429" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1171</v>
       </c>
@@ -23233,8 +24523,11 @@
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
-    </row>
-    <row r="431" spans="1:18">
+      <c r="S430" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1172</v>
       </c>
@@ -23277,8 +24570,11 @@
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
-    </row>
-    <row r="432" spans="1:18">
+      <c r="S431" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1236</v>
       </c>
@@ -23321,8 +24617,11 @@
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
-    </row>
-    <row r="433" spans="1:18">
+      <c r="S432" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1383</v>
       </c>
@@ -23365,8 +24664,11 @@
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
-    </row>
-    <row r="434" spans="1:18">
+      <c r="S433" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1232</v>
       </c>
@@ -23399,8 +24701,11 @@
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
-    </row>
-    <row r="435" spans="1:18">
+      <c r="S434" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1382</v>
       </c>
@@ -23443,8 +24748,11 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
-    </row>
-    <row r="436" spans="1:18">
+      <c r="S435" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1244</v>
       </c>
@@ -23487,8 +24795,11 @@
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
-    </row>
-    <row r="437" spans="1:18">
+      <c r="S436" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1174</v>
       </c>
@@ -23525,8 +24836,11 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
-    </row>
-    <row r="438" spans="1:18">
+      <c r="S437" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1175</v>
       </c>
@@ -23549,8 +24863,11 @@
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
-    </row>
-    <row r="439" spans="1:18">
+      <c r="S438" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1176</v>
       </c>
@@ -23583,8 +24900,11 @@
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
-    </row>
-    <row r="440" spans="1:18">
+      <c r="S439" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1179</v>
       </c>
@@ -23627,8 +24947,11 @@
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
-    </row>
-    <row r="441" spans="1:18">
+      <c r="S440" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1181</v>
       </c>
@@ -23665,8 +24988,11 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
-    </row>
-    <row r="442" spans="1:18">
+      <c r="S441" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1183</v>
       </c>
@@ -23705,8 +25031,11 @@
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
-    </row>
-    <row r="443" spans="1:18">
+      <c r="S442" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1185</v>
       </c>
@@ -23743,8 +25072,11 @@
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
-    </row>
-    <row r="444" spans="1:18">
+      <c r="S443" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1188</v>
       </c>
@@ -23781,8 +25113,11 @@
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
-    </row>
-    <row r="445" spans="1:18">
+      <c r="S444" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1191</v>
       </c>
@@ -23823,8 +25158,11 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
-    </row>
-    <row r="446" spans="1:18">
+      <c r="S445" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1193</v>
       </c>
@@ -23861,8 +25199,11 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
-    </row>
-    <row r="447" spans="1:18">
+      <c r="S446" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1195</v>
       </c>
@@ -23899,8 +25240,11 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
-    </row>
-    <row r="448" spans="1:18">
+      <c r="S447" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1197</v>
       </c>
@@ -23937,8 +25281,11 @@
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
-    </row>
-    <row r="449" spans="1:18">
+      <c r="S448" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1199</v>
       </c>
@@ -23983,8 +25330,11 @@
       <c r="R449" s="3">
         <v>36679</v>
       </c>
-    </row>
-    <row r="450" spans="1:18">
+      <c r="S449" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1200</v>
       </c>
@@ -24025,8 +25375,11 @@
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
-    </row>
-    <row r="451" spans="1:18">
+      <c r="S450" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1202</v>
       </c>
@@ -24067,8 +25420,11 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
-    </row>
-    <row r="452" spans="1:18">
+      <c r="S451" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1203</v>
       </c>
@@ -24113,8 +25469,11 @@
       <c r="R452" s="3">
         <v>38321</v>
       </c>
-    </row>
-    <row r="453" spans="1:18">
+      <c r="S452" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1206</v>
       </c>
@@ -24157,8 +25516,11 @@
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
-    </row>
-    <row r="454" spans="1:18">
+      <c r="S453" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1208</v>
       </c>
@@ -24201,8 +25563,11 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
-    </row>
-    <row r="455" spans="1:18">
+      <c r="S454" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1211</v>
       </c>
@@ -24245,8 +25610,11 @@
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
-    </row>
-    <row r="456" spans="1:18">
+      <c r="S455" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1213</v>
       </c>
@@ -24285,8 +25653,11 @@
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
-    </row>
-    <row r="457" spans="1:18">
+      <c r="S456" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1215</v>
       </c>
@@ -24319,8 +25690,11 @@
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
-    </row>
-    <row r="458" spans="1:18">
+      <c r="S457" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1218</v>
       </c>
@@ -24367,8 +25741,11 @@
       <c r="R458" s="3">
         <v>38287</v>
       </c>
-    </row>
-    <row r="459" spans="1:18">
+      <c r="S458" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1221</v>
       </c>
@@ -24411,8 +25788,11 @@
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
-    </row>
-    <row r="460" spans="1:18">
+      <c r="S459" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1224</v>
       </c>
@@ -24449,8 +25829,11 @@
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
-    </row>
-    <row r="461" spans="1:18">
+      <c r="S460" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1226</v>
       </c>
@@ -24497,8 +25880,11 @@
       <c r="R461" s="3">
         <v>36860</v>
       </c>
-    </row>
-    <row r="462" spans="1:18">
+      <c r="S461" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1228</v>
       </c>
@@ -24541,8 +25927,11 @@
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
-    </row>
-    <row r="463" spans="1:18">
+      <c r="S462" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1232</v>
       </c>
@@ -24573,8 +25962,11 @@
       <c r="N463" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="464" spans="1:18">
+      <c r="S463" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1236</v>
       </c>
@@ -24596,8 +25988,11 @@
       <c r="K464" s="5">
         <v>41669</v>
       </c>
-    </row>
-    <row r="465" spans="1:15">
+      <c r="S464" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1245</v>
       </c>
@@ -24631,8 +26026,11 @@
       <c r="O465" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="466" spans="1:15">
+      <c r="S465" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1249</v>
       </c>
@@ -24663,8 +26061,11 @@
       <c r="O466" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="467" spans="1:15">
+      <c r="S466" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1252</v>
       </c>
@@ -24701,8 +26102,11 @@
       <c r="O467" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="468" spans="1:15">
+      <c r="S467" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1255</v>
       </c>
@@ -24739,8 +26143,11 @@
       <c r="O468" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="469" spans="1:15">
+      <c r="S468" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1258</v>
       </c>
@@ -24777,8 +26184,11 @@
       <c r="O469" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="470" spans="1:15">
+      <c r="S469" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1259</v>
       </c>
@@ -24815,8 +26225,11 @@
       <c r="O470" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="471" spans="1:15">
+      <c r="S470" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1260</v>
       </c>
@@ -24853,8 +26266,11 @@
       <c r="O471" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="472" spans="1:15">
+      <c r="S471" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1261</v>
       </c>
@@ -24891,8 +26307,11 @@
       <c r="O472" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="473" spans="1:15">
+      <c r="S472" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1262</v>
       </c>
@@ -24926,8 +26345,11 @@
       <c r="O473" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="474" spans="1:15">
+      <c r="S473" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1263</v>
       </c>
@@ -24961,8 +26383,11 @@
       <c r="O474" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="475" spans="1:15">
+      <c r="S474" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1264</v>
       </c>
@@ -24984,8 +26409,11 @@
       <c r="K475" s="5">
         <v>41758</v>
       </c>
-    </row>
-    <row r="476" spans="1:15">
+      <c r="S475" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1265</v>
       </c>
@@ -25022,8 +26450,11 @@
       <c r="O476" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="477" spans="1:15">
+      <c r="S476" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1266</v>
       </c>
@@ -25057,8 +26488,11 @@
       <c r="O477" s="5" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="478" spans="1:15">
+      <c r="S477" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1267</v>
       </c>
@@ -25095,8 +26529,11 @@
       <c r="O478" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="479" spans="1:15">
+      <c r="S478" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1268</v>
       </c>
@@ -25133,8 +26570,11 @@
       <c r="O479" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="480" spans="1:15">
+      <c r="S479" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1269</v>
       </c>
@@ -25171,8 +26611,11 @@
       <c r="O480" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="481" spans="1:15">
+      <c r="S480" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1270</v>
       </c>
@@ -25209,8 +26652,11 @@
       <c r="O481" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="482" spans="1:15">
+      <c r="S481" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1297</v>
       </c>
@@ -25244,8 +26690,11 @@
       <c r="O482" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="483" spans="1:15">
+      <c r="S482" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1298</v>
       </c>
@@ -25282,8 +26731,11 @@
       <c r="O483" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="484" spans="1:15">
+      <c r="S483" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1299</v>
       </c>
@@ -25320,8 +26772,11 @@
       <c r="O484" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="485" spans="1:15">
+      <c r="S484" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1300</v>
       </c>
@@ -25361,8 +26816,11 @@
       <c r="O485" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="486" spans="1:15">
+      <c r="S485" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1301</v>
       </c>
@@ -25399,8 +26857,11 @@
       <c r="O486" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="487" spans="1:15">
+      <c r="S486" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1302</v>
       </c>
@@ -25437,8 +26898,11 @@
       <c r="O487" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="488" spans="1:15">
+      <c r="S487" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1303</v>
       </c>
@@ -25460,8 +26924,11 @@
       <c r="K488" s="5">
         <v>41919</v>
       </c>
-    </row>
-    <row r="489" spans="1:15">
+      <c r="S488" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1304</v>
       </c>
@@ -25498,8 +26965,11 @@
       <c r="O489" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="490" spans="1:15">
+      <c r="S489" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1305</v>
       </c>
@@ -25536,8 +27006,11 @@
       <c r="O490" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="491" spans="1:15">
+      <c r="S490" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1306</v>
       </c>
@@ -25574,8 +27047,11 @@
       <c r="O491" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="492" spans="1:15">
+      <c r="S491" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1307</v>
       </c>
@@ -25597,8 +27073,11 @@
       <c r="K492" s="5">
         <v>41987</v>
       </c>
-    </row>
-    <row r="493" spans="1:15">
+      <c r="S492" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1308</v>
       </c>
@@ -25620,8 +27099,11 @@
       <c r="K493" s="5">
         <v>41983</v>
       </c>
-    </row>
-    <row r="494" spans="1:15">
+      <c r="S493" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1330</v>
       </c>
@@ -25643,8 +27125,11 @@
       <c r="K494" s="5">
         <v>42108</v>
       </c>
-    </row>
-    <row r="495" spans="1:15">
+      <c r="S494" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1329</v>
       </c>
@@ -25666,8 +27151,11 @@
       <c r="K495" s="5">
         <v>42116</v>
       </c>
-    </row>
-    <row r="496" spans="1:15">
+      <c r="S495" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1331</v>
       </c>
@@ -25689,8 +27177,11 @@
       <c r="K496" s="5">
         <v>42116</v>
       </c>
-    </row>
-    <row r="497" spans="1:11">
+      <c r="S496" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1332</v>
       </c>
@@ -25712,8 +27203,11 @@
       <c r="K497" s="5">
         <v>42116</v>
       </c>
-    </row>
-    <row r="498" spans="1:11">
+      <c r="S497" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1333</v>
       </c>
@@ -25735,8 +27229,11 @@
       <c r="K498" s="5">
         <v>42116</v>
       </c>
-    </row>
-    <row r="499" spans="1:11">
+      <c r="S498" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1334</v>
       </c>
@@ -25758,8 +27255,11 @@
       <c r="K499" s="5">
         <v>42121</v>
       </c>
-    </row>
-    <row r="500" spans="1:11">
+      <c r="S499" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1344</v>
       </c>
@@ -25781,8 +27281,11 @@
       <c r="K500" s="5">
         <v>42121</v>
       </c>
-    </row>
-    <row r="501" spans="1:11">
+      <c r="S500" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1345</v>
       </c>
@@ -25804,8 +27307,11 @@
       <c r="K501" s="5">
         <v>42143</v>
       </c>
-    </row>
-    <row r="502" spans="1:11">
+      <c r="S501" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1346</v>
       </c>
@@ -25827,8 +27333,11 @@
       <c r="K502" s="5">
         <v>42184</v>
       </c>
-    </row>
-    <row r="503" spans="1:11">
+      <c r="S502" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1347</v>
       </c>
@@ -25850,8 +27359,11 @@
       <c r="K503" s="5">
         <v>42222</v>
       </c>
-    </row>
-    <row r="504" spans="1:11">
+      <c r="S503" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1348</v>
       </c>
@@ -25873,8 +27385,11 @@
       <c r="K504" s="5">
         <v>42222</v>
       </c>
-    </row>
-    <row r="505" spans="1:11">
+      <c r="S504" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1349</v>
       </c>
@@ -25896,8 +27411,11 @@
       <c r="K505" s="5">
         <v>42244</v>
       </c>
-    </row>
-    <row r="506" spans="1:11">
+      <c r="S505" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1350</v>
       </c>
@@ -25918,6 +27436,9 @@
       </c>
       <c r="K506" s="5">
         <v>42249</v>
+      </c>
+      <c r="S506" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
